--- a/doc/ファイル構成一覧表_D3.xlsx
+++ b/doc/ファイル構成一覧表_D3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2560D68-089C-45E8-A73C-6710E07A3499}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D908C3-8475-4FFA-8D8B-745BE1186351}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="107">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -83,28 +83,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>担当者Ａ</t>
-    <rPh sb="0" eb="3">
-      <t>タントウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>担当者B</t>
-    <rPh sb="0" eb="3">
-      <t>タントウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>dao</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>担当者C</t>
-    <rPh sb="0" eb="3">
-      <t>タントウシャ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -153,34 +132,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>login.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン画面用js</t>
-    <rPh sb="4" eb="7">
-      <t>ガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>list.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一覧表画面用js</t>
-    <rPh sb="0" eb="2">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>css</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -207,13 +158,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン画面用css</t>
-    <rPh sb="4" eb="7">
-      <t>ガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>list.css</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -836,6 +780,117 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面用css
+ログイン前の入力ボックスの大きさ、配置など</t>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>poster.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>board.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setting.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規投稿、返信、通報のひな型用css</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板のタイトルと通報のタイトルが並ぶ画面のcss</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツウホウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定画面のcss</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>beforeLogin.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>afterLogin.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインする前の画面用js全般</t>
+    <rPh sb="6" eb="7">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ゼンパン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインした後の画面用js全般</t>
+    <rPh sb="6" eb="7">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ゼンパン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -904,7 +959,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -913,6 +968,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1228,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G45"/>
+  <dimension ref="B2:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1265,7 +1323,6 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
-        <f>ROW()-2</f>
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1278,11 +1335,9 @@
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
@@ -1295,10 +1350,10 @@
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -1313,10 +1368,10 @@
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -1331,10 +1386,10 @@
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -1349,10 +1404,10 @@
         <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -1367,10 +1422,10 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -1385,10 +1440,10 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -1403,10 +1458,10 @@
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -1421,10 +1476,10 @@
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -1439,10 +1494,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -1457,10 +1512,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -1475,14 +1530,12 @@
         <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
@@ -1492,579 +1545,618 @@
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="1"/>
+      <c r="B16" s="1">
+        <v>14</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="1"/>
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="1">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="1">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="1">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G28" s="1"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="G30" s="1"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="1"/>
+      <c r="B31" s="1">
+        <v>29</v>
+      </c>
       <c r="C31" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="1"/>
+      <c r="B32" s="1">
+        <v>30</v>
+      </c>
       <c r="C32" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="1"/>
+      <c r="B33" s="1">
+        <v>31</v>
+      </c>
       <c r="C33" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="1"/>
+      <c r="B34" s="1">
+        <v>32</v>
+      </c>
       <c r="C34" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="1">
+        <v>33</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="F35" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="1"/>
+      <c r="B36" s="1">
+        <v>34</v>
+      </c>
       <c r="C36" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="1"/>
+      <c r="B37" s="1">
+        <v>35</v>
+      </c>
       <c r="C37" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="1"/>
+      <c r="B38" s="1">
+        <v>36</v>
+      </c>
       <c r="C38" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
-        <f t="shared" ref="B39:B45" si="0">ROW()-2</f>
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
-        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" s="1"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
-        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G41" s="1"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
-        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G42" s="1"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
-        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>22</v>
+      </c>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
-        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>23</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="1">
-        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="1">
+        <v>44</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="1">
+        <v>45</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="1">
+        <v>46</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2235,10 +2327,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2261,20 +2379,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/ファイル構成一覧表_D3.xlsx
+++ b/doc/ファイル構成一覧表_D3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D908C3-8475-4FFA-8D8B-745BE1186351}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5640E000-2F38-4D55-BD1B-5E47ACBE4D5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="112">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -554,13 +554,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PW忘れン画面jsp</t>
-    <rPh sb="2" eb="3">
-      <t>ワス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>秘密の質問画面jsp</t>
     <rPh sb="0" eb="2">
       <t>ヒミツ</t>
@@ -622,19 +615,6 @@
       <t>セッテイ</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>掲示板表画面jsp</t>
-    <rPh sb="0" eb="3">
-      <t>ケイジバン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -891,6 +871,67 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>ゼンパン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石戸</t>
+    <rPh sb="0" eb="2">
+      <t>イシド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PW忘れ画面jsp</t>
+    <rPh sb="2" eb="3">
+      <t>ワス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秘密の質問テーブル1行分のデータを持つ、エンティティモデル</t>
+    <rPh sb="0" eb="2">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USER_SQ.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板画面jsp</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上野</t>
+    <rPh sb="0" eb="2">
+      <t>ウエノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目崎</t>
+    <rPh sb="0" eb="2">
+      <t>メザキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -916,7 +957,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -926,6 +967,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,7 +1018,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -969,8 +1028,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1286,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G48"/>
+  <dimension ref="B2:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1298,7 +1384,7 @@
     <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.83203125" customWidth="1"/>
     <col min="6" max="6" width="58.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1317,27 +1403,29 @@
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="8" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
@@ -1355,7 +1443,7 @@
       <c r="F4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
@@ -1373,7 +1461,7 @@
       <c r="F5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
@@ -1391,7 +1479,7 @@
       <c r="F6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
@@ -1409,7 +1497,7 @@
       <c r="F7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
@@ -1427,7 +1515,7 @@
       <c r="F8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
@@ -1440,30 +1528,32 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="8" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
@@ -1481,25 +1571,27 @@
       <c r="F11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="8" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
@@ -1517,43 +1609,45 @@
       <c r="F13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="1">
+      <c r="B14" s="6">
         <v>12</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="C14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <v>13</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="8" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
@@ -1571,7 +1665,7 @@
       <c r="F16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
@@ -1589,7 +1683,7 @@
       <c r="F17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
@@ -1607,7 +1701,7 @@
       <c r="F18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
@@ -1625,7 +1719,7 @@
       <c r="F19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
@@ -1643,7 +1737,7 @@
       <c r="F20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
@@ -1661,43 +1755,47 @@
       <c r="F21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="1">
+      <c r="B22" s="3">
         <v>20</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="C22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="E22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="3">
+        <v>21</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="1">
-        <v>21</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G23" s="1"/>
+      <c r="F23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
@@ -1710,12 +1808,12 @@
         <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
@@ -1728,12 +1826,12 @@
         <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
@@ -1746,12 +1844,12 @@
         <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G26" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
@@ -1764,12 +1862,12 @@
         <v>10</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G27" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
@@ -1782,12 +1880,12 @@
         <v>10</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G28" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
@@ -1800,48 +1898,50 @@
         <v>10</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G29" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="3">
+        <v>29</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="1">
-        <v>29</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="8" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
@@ -1854,12 +1954,12 @@
         <v>12</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
@@ -1872,12 +1972,12 @@
         <v>12</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G33" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
@@ -1890,12 +1990,12 @@
         <v>12</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G34" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
@@ -1908,12 +2008,12 @@
         <v>12</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G35" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
@@ -1926,30 +2026,32 @@
         <v>12</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="3">
+        <v>35</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="1">
-        <v>35</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G37" s="1"/>
+      <c r="F37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
@@ -1962,12 +2064,12 @@
         <v>12</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G38" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
@@ -1980,174 +2082,194 @@
         <v>12</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="3">
+        <v>38</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="1">
-        <v>38</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="1"/>
+      <c r="F40" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
         <v>39</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G41" s="1"/>
+      <c r="E41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="11"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
         <v>40</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G42" s="1"/>
+      <c r="E42" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G42" s="11"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
         <v>41</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
         <v>42</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G44" s="1"/>
+      <c r="E44" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="11"/>
     </row>
     <row r="45" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="1">
         <v>43</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G45" s="1"/>
+      <c r="E45" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G45" s="11"/>
     </row>
     <row r="46" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="1">
         <v>44</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G46" s="1"/>
+      <c r="G46" s="11"/>
     </row>
     <row r="47" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="1">
         <v>45</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G47" s="11"/>
+    </row>
+    <row r="48" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="1">
         <v>46</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G48" s="11"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="1">
+        <v>47</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F49" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G48" s="1"/>
+      <c r="G49" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2157,6 +2279,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2327,12 +2455,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2343,6 +2465,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2361,23 +2500,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/doc/ファイル構成一覧表_D3.xlsx
+++ b/doc/ファイル構成一覧表_D3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349F8FD7-074E-4C91-BFE3-2F216CDC0141}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC6AD99-6FBE-41A5-852B-63305CF992E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="6" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="380" yWindow="60" windowWidth="15210" windowHeight="10140" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="全体図" sheetId="1" r:id="rId1"/>
@@ -997,7 +997,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0;\-0;"/>
+    <numFmt numFmtId="176" formatCode="0;\-0;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1105,19 +1105,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -1126,7 +1126,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1836,8 +1836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:H51"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2853,7 +2853,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="36" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2866,9 +2866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC644048-E1AD-4D45-9AB7-851F5C565D03}">
   <dimension ref="B2:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -4119,17 +4117,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4141,9 +4139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55929C9-1429-4ADB-9396-65D99D42B784}">
   <dimension ref="B2:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -5394,17 +5390,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5416,9 +5412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCF0817-3206-463E-8147-94C3D4B8394F}">
   <dimension ref="B2:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -6669,17 +6663,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6691,9 +6685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2B82E9-39F8-470A-8355-F61C60AD3CA1}">
   <dimension ref="B2:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -7944,17 +7936,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7966,9 +7958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF4503B-A78F-4A54-B62C-10E2468C8C6D}">
   <dimension ref="A2:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -9385,17 +9375,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="36" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="35" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9408,9 +9398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92DD289-89BB-43CD-BE39-542667FE732B}">
   <dimension ref="A2:P52"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -11018,17 +11006,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="34" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="33" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="31" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11040,9 +11028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F87894D-12DC-4794-BDC3-A303FF30E4C5}">
   <dimension ref="B2:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -12293,17 +12279,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="31" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="28" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12315,9 +12301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D995EB6-94AE-4B45-B3EB-582DD8848CDC}">
   <dimension ref="B2:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
-    </sheetView>
+    <sheetView zoomScale="89" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -13568,17 +13552,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="30" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="26" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="29" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13590,9 +13574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697F154B-C5ED-4DA1-9C36-9CC4BA0C4464}">
   <dimension ref="B2:H51"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
-    </sheetView>
+    <sheetView zoomScale="92" zoomScaleNormal="40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -14843,17 +14825,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="28" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="27" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14865,9 +14847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEACA3E-2345-4964-BEC4-330FBFB6CF7E}">
   <dimension ref="B2:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -16118,17 +16098,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="26" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16140,9 +16120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860600F4-DC21-4682-A384-0B6650020E97}">
   <dimension ref="B2:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -17393,17 +17371,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17415,9 +17393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1B3B79-6399-4B46-85F6-6DBB17F80967}">
   <dimension ref="B2:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -18668,17 +18644,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="21" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18687,21 +18663,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -18872,32 +18833,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18914,4 +18865,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/ファイル構成一覧表_D3.xlsx
+++ b/doc/ファイル構成一覧表_D3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC6AD99-6FBE-41A5-852B-63305CF992E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133561EA-33E7-48ED-9CD5-0C59B0BE6CAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="60" windowWidth="15210" windowHeight="10140" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="23330" yWindow="690" windowWidth="14400" windowHeight="9380" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="全体図" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2657" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="118">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -991,6 +991,13 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>小神野</t>
+    <rPh sb="0" eb="3">
+      <t>オガミノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1836,8 +1843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="E15" zoomScale="101" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2152,8 +2159,12 @@
       <c r="F16" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="6"/>
+      <c r="G16" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="4">
@@ -2331,8 +2342,12 @@
       <c r="F25" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="6"/>
+      <c r="G25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="4">
@@ -18663,6 +18678,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -18833,22 +18863,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18865,29 +18905,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/ファイル構成一覧表_D3.xlsx
+++ b/doc/ファイル構成一覧表_D3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133561EA-33E7-48ED-9CD5-0C59B0BE6CAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478D7F77-6640-45CA-AB8E-9FBC49771E98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23330" yWindow="690" windowWidth="14400" windowHeight="9380" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="全体図" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="119">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -998,6 +998,13 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>終了</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1843,8 +1850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E15" zoomScale="101" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2079,7 +2086,7 @@
         <v>111</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2163,7 +2170,7 @@
         <v>117</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2346,7 +2353,7 @@
         <v>117</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2502,7 +2509,7 @@
         <v>111</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2681,7 +2688,7 @@
         <v>111</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3163,7 +3170,7 @@
       </c>
       <c r="H12" s="14" t="str">
         <f>全体図!H12</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3676,7 +3683,7 @@
       </c>
       <c r="H33" s="14" t="str">
         <f>全体図!H33</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3901,7 +3908,7 @@
       </c>
       <c r="H42" s="14" t="str">
         <f>全体図!H42</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -4436,7 +4443,7 @@
       </c>
       <c r="H12" s="14" t="str">
         <f>全体図!H12</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -4949,7 +4956,7 @@
       </c>
       <c r="H33" s="14" t="str">
         <f>全体図!H33</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -5174,7 +5181,7 @@
       </c>
       <c r="H42" s="14" t="str">
         <f>全体図!H42</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -5709,7 +5716,7 @@
       </c>
       <c r="H12" s="14" t="str">
         <f>全体図!H12</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -6222,7 +6229,7 @@
       </c>
       <c r="H33" s="14" t="str">
         <f>全体図!H33</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -6447,7 +6454,7 @@
       </c>
       <c r="H42" s="14" t="str">
         <f>全体図!H42</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -6982,7 +6989,7 @@
       </c>
       <c r="H12" s="14" t="str">
         <f>全体図!H12</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -7495,7 +7502,7 @@
       </c>
       <c r="H33" s="14" t="str">
         <f>全体図!H33</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -7720,7 +7727,7 @@
       </c>
       <c r="H42" s="14" t="str">
         <f>全体図!H42</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -8290,7 +8297,7 @@
       </c>
       <c r="H12" s="15" t="str">
         <f>全体図!H12</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
@@ -8874,7 +8881,7 @@
       </c>
       <c r="H33" s="12" t="str">
         <f>全体図!H33</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -9132,7 +9139,7 @@
       </c>
       <c r="H42" s="15" t="str">
         <f>全体図!H42</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
       <c r="I42" s="17"/>
       <c r="J42" s="17"/>
@@ -9752,7 +9759,7 @@
       </c>
       <c r="H12" s="15" t="str">
         <f>全体図!H12</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
@@ -10418,7 +10425,7 @@
       </c>
       <c r="H33" s="15" t="str">
         <f>全体図!H33</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
@@ -10715,7 +10722,7 @@
       </c>
       <c r="H42" s="15" t="str">
         <f>全体図!H42</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
       <c r="I42" s="17"/>
       <c r="J42" s="17"/>
@@ -11325,7 +11332,7 @@
       </c>
       <c r="H12" s="15" t="str">
         <f>全体図!H12</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -11838,7 +11845,7 @@
       </c>
       <c r="H33" s="15" t="str">
         <f>全体図!H33</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="34" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12063,7 +12070,7 @@
       </c>
       <c r="H42" s="15" t="str">
         <f>全体図!H42</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="43" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12598,7 +12605,7 @@
       </c>
       <c r="H12" s="15" t="str">
         <f>全体図!H12</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -13111,7 +13118,7 @@
       </c>
       <c r="H33" s="15" t="str">
         <f>全体図!H33</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -13336,7 +13343,7 @@
       </c>
       <c r="H42" s="15" t="str">
         <f>全体図!H42</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="43" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13871,7 +13878,7 @@
       </c>
       <c r="H12" s="15" t="str">
         <f>全体図!H12</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -14384,7 +14391,7 @@
       </c>
       <c r="H33" s="15" t="str">
         <f>全体図!H33</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -14609,7 +14616,7 @@
       </c>
       <c r="H42" s="15" t="str">
         <f>全体図!H42</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -15144,7 +15151,7 @@
       </c>
       <c r="H12" s="15" t="str">
         <f>全体図!H12</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -15657,7 +15664,7 @@
       </c>
       <c r="H33" s="15" t="str">
         <f>全体図!H33</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -15882,7 +15889,7 @@
       </c>
       <c r="H42" s="15" t="str">
         <f>全体図!H42</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -16417,7 +16424,7 @@
       </c>
       <c r="H12" s="14" t="str">
         <f>全体図!H12</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -16930,7 +16937,7 @@
       </c>
       <c r="H33" s="14" t="str">
         <f>全体図!H33</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -17155,7 +17162,7 @@
       </c>
       <c r="H42" s="14" t="str">
         <f>全体図!H42</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -17690,7 +17697,7 @@
       </c>
       <c r="H12" s="14" t="str">
         <f>全体図!H12</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -18203,7 +18210,7 @@
       </c>
       <c r="H33" s="14" t="str">
         <f>全体図!H33</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -18428,7 +18435,7 @@
       </c>
       <c r="H42" s="14" t="str">
         <f>全体図!H42</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -18678,21 +18685,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -18863,32 +18855,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18905,4 +18887,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/ファイル構成一覧表_D3.xlsx
+++ b/doc/ファイル構成一覧表_D3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478D7F77-6640-45CA-AB8E-9FBC49771E98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3E4E9D-2609-4D59-B42D-D5057F83F9F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="全体図" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2680" uniqueCount="121">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1005,6 +1005,20 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>川口</t>
+    <rPh sb="0" eb="2">
+      <t>カワグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>古川</t>
+    <rPh sb="0" eb="2">
+      <t>フルカワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1147,7 +1161,37 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1850,8 +1894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1926,8 +1970,12 @@
       <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6"/>
+      <c r="G4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="4">
@@ -1945,8 +1993,12 @@
       <c r="F5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="6"/>
+      <c r="G5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="4">
@@ -1964,8 +2016,12 @@
       <c r="F6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="6"/>
+      <c r="G6" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="4">
@@ -1983,7 +2039,9 @@
       <c r="F7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>119</v>
+      </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2002,7 +2060,9 @@
       <c r="F8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2189,8 +2249,12 @@
       <c r="F17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="6"/>
+      <c r="G17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="4">
@@ -2208,7 +2272,9 @@
       <c r="F18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>120</v>
+      </c>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2227,7 +2293,9 @@
       <c r="F19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2246,7 +2314,9 @@
       <c r="F20" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2528,8 +2598,12 @@
       <c r="F34" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="6"/>
+      <c r="G34" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="4">
@@ -2547,8 +2621,12 @@
       <c r="F35" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="6"/>
+      <c r="G35" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="4">
@@ -2566,8 +2644,12 @@
       <c r="F36" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="6"/>
+      <c r="G36" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="4">
@@ -2864,19 +2946,34 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="〇">
+  <conditionalFormatting sqref="H25:H33 H17:H23 H1:H5 H37:H1048576 H7:H15">
+    <cfRule type="containsText" dxfId="41" priority="6" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="37" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="40" priority="5" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="36" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="39" priority="4" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34:H35">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2964,13 +3061,13 @@
       <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="12" t="str">
         <f>全体図!G4</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="14">
+        <v>古川</v>
+      </c>
+      <c r="H4" s="14" t="str">
         <f>全体図!H4</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2989,13 +3086,13 @@
       <c r="F5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="12" t="str">
         <f>全体図!G5</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="14">
+        <v>目崎</v>
+      </c>
+      <c r="H5" s="14" t="str">
         <f>全体図!H5</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3014,13 +3111,13 @@
       <c r="F6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="12" t="str">
         <f>全体図!G6</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="14">
+        <v>小神野</v>
+      </c>
+      <c r="H6" s="14" t="str">
         <f>全体図!H6</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3039,9 +3136,9 @@
       <c r="F7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="12" t="str">
         <f>全体図!G7</f>
-        <v>0</v>
+        <v>川口</v>
       </c>
       <c r="H7" s="14">
         <f>全体図!H7</f>
@@ -3064,9 +3161,9 @@
       <c r="F8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="12" t="str">
         <f>全体図!G8</f>
-        <v>0</v>
+        <v>石戸</v>
       </c>
       <c r="H8" s="14">
         <f>全体図!H8</f>
@@ -3283,13 +3380,13 @@
       <c r="F17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="12" t="str">
         <f>全体図!G17</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="14">
+        <v>川口</v>
+      </c>
+      <c r="H17" s="14" t="str">
         <f>全体図!H17</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3308,9 +3405,9 @@
       <c r="F18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="12" t="str">
         <f>全体図!G18</f>
-        <v>0</v>
+        <v>古川</v>
       </c>
       <c r="H18" s="14">
         <f>全体図!H18</f>
@@ -3333,9 +3430,9 @@
       <c r="F19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="12" t="str">
         <f>全体図!G19</f>
-        <v>0</v>
+        <v>目崎</v>
       </c>
       <c r="H19" s="14">
         <f>全体図!H19</f>
@@ -3358,9 +3455,9 @@
       <c r="F20" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="12" t="str">
         <f>全体図!G20</f>
-        <v>0</v>
+        <v>上野</v>
       </c>
       <c r="H20" s="14">
         <f>全体図!H20</f>
@@ -3702,13 +3799,13 @@
       <c r="F34" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="12" t="str">
         <f>全体図!G34</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="14">
+        <v>古川</v>
+      </c>
+      <c r="H34" s="14" t="str">
         <f>全体図!H34</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3727,13 +3824,13 @@
       <c r="F35" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="12" t="str">
         <f>全体図!G35</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="14">
+        <v>目崎</v>
+      </c>
+      <c r="H35" s="14" t="str">
         <f>全体図!H35</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3752,13 +3849,13 @@
       <c r="F36" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="12" t="str">
         <f>全体図!G36</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="14">
+        <v>小神野</v>
+      </c>
+      <c r="H36" s="14" t="str">
         <f>全体図!H36</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -4139,17 +4236,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4237,13 +4334,13 @@
       <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="12" t="str">
         <f>全体図!G4</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="14">
+        <v>古川</v>
+      </c>
+      <c r="H4" s="14" t="str">
         <f>全体図!H4</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -4262,13 +4359,13 @@
       <c r="F5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="12" t="str">
         <f>全体図!G5</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="14">
+        <v>目崎</v>
+      </c>
+      <c r="H5" s="14" t="str">
         <f>全体図!H5</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -4287,13 +4384,13 @@
       <c r="F6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="12" t="str">
         <f>全体図!G6</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="14">
+        <v>小神野</v>
+      </c>
+      <c r="H6" s="14" t="str">
         <f>全体図!H6</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -4312,9 +4409,9 @@
       <c r="F7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="12" t="str">
         <f>全体図!G7</f>
-        <v>0</v>
+        <v>川口</v>
       </c>
       <c r="H7" s="14">
         <f>全体図!H7</f>
@@ -4337,9 +4434,9 @@
       <c r="F8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="12" t="str">
         <f>全体図!G8</f>
-        <v>0</v>
+        <v>石戸</v>
       </c>
       <c r="H8" s="14">
         <f>全体図!H8</f>
@@ -4556,13 +4653,13 @@
       <c r="F17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="12" t="str">
         <f>全体図!G17</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="14">
+        <v>川口</v>
+      </c>
+      <c r="H17" s="14" t="str">
         <f>全体図!H17</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -4581,9 +4678,9 @@
       <c r="F18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="12" t="str">
         <f>全体図!G18</f>
-        <v>0</v>
+        <v>古川</v>
       </c>
       <c r="H18" s="14">
         <f>全体図!H18</f>
@@ -4606,9 +4703,9 @@
       <c r="F19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="12" t="str">
         <f>全体図!G19</f>
-        <v>0</v>
+        <v>目崎</v>
       </c>
       <c r="H19" s="14">
         <f>全体図!H19</f>
@@ -4631,9 +4728,9 @@
       <c r="F20" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="12" t="str">
         <f>全体図!G20</f>
-        <v>0</v>
+        <v>上野</v>
       </c>
       <c r="H20" s="14">
         <f>全体図!H20</f>
@@ -4975,13 +5072,13 @@
       <c r="F34" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="12" t="str">
         <f>全体図!G34</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="14">
+        <v>古川</v>
+      </c>
+      <c r="H34" s="14" t="str">
         <f>全体図!H34</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -5000,13 +5097,13 @@
       <c r="F35" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="12" t="str">
         <f>全体図!G35</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="14">
+        <v>目崎</v>
+      </c>
+      <c r="H35" s="14" t="str">
         <f>全体図!H35</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -5025,13 +5122,13 @@
       <c r="F36" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="12" t="str">
         <f>全体図!G36</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="14">
+        <v>小神野</v>
+      </c>
+      <c r="H36" s="14" t="str">
         <f>全体図!H36</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -5412,17 +5509,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5510,13 +5607,13 @@
       <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="12" t="str">
         <f>全体図!G4</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="14">
+        <v>古川</v>
+      </c>
+      <c r="H4" s="14" t="str">
         <f>全体図!H4</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -5535,13 +5632,13 @@
       <c r="F5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="12" t="str">
         <f>全体図!G5</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="14">
+        <v>目崎</v>
+      </c>
+      <c r="H5" s="14" t="str">
         <f>全体図!H5</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -5560,13 +5657,13 @@
       <c r="F6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="12" t="str">
         <f>全体図!G6</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="14">
+        <v>小神野</v>
+      </c>
+      <c r="H6" s="14" t="str">
         <f>全体図!H6</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -5585,9 +5682,9 @@
       <c r="F7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="12" t="str">
         <f>全体図!G7</f>
-        <v>0</v>
+        <v>川口</v>
       </c>
       <c r="H7" s="14">
         <f>全体図!H7</f>
@@ -5610,9 +5707,9 @@
       <c r="F8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="12" t="str">
         <f>全体図!G8</f>
-        <v>0</v>
+        <v>石戸</v>
       </c>
       <c r="H8" s="14">
         <f>全体図!H8</f>
@@ -5829,13 +5926,13 @@
       <c r="F17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="12" t="str">
         <f>全体図!G17</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="14">
+        <v>川口</v>
+      </c>
+      <c r="H17" s="14" t="str">
         <f>全体図!H17</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -5854,9 +5951,9 @@
       <c r="F18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="12" t="str">
         <f>全体図!G18</f>
-        <v>0</v>
+        <v>古川</v>
       </c>
       <c r="H18" s="14">
         <f>全体図!H18</f>
@@ -5879,9 +5976,9 @@
       <c r="F19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="12" t="str">
         <f>全体図!G19</f>
-        <v>0</v>
+        <v>目崎</v>
       </c>
       <c r="H19" s="14">
         <f>全体図!H19</f>
@@ -5904,9 +6001,9 @@
       <c r="F20" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="12" t="str">
         <f>全体図!G20</f>
-        <v>0</v>
+        <v>上野</v>
       </c>
       <c r="H20" s="14">
         <f>全体図!H20</f>
@@ -6248,13 +6345,13 @@
       <c r="F34" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="12" t="str">
         <f>全体図!G34</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="14">
+        <v>古川</v>
+      </c>
+      <c r="H34" s="14" t="str">
         <f>全体図!H34</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -6273,13 +6370,13 @@
       <c r="F35" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="12" t="str">
         <f>全体図!G35</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="14">
+        <v>目崎</v>
+      </c>
+      <c r="H35" s="14" t="str">
         <f>全体図!H35</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -6298,13 +6395,1286 @@
       <c r="F36" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="12" t="str">
         <f>全体図!G36</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="14">
+        <v>小神野</v>
+      </c>
+      <c r="H36" s="14" t="str">
         <f>全体図!H36</f>
-        <v>0</v>
+        <v>〇</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="4">
+        <v>35</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="12">
+        <f>全体図!G37</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="14">
+        <f>全体図!H37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="4">
+        <v>36</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38" s="12">
+        <f>全体図!G38</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="14">
+        <f>全体図!H38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="4">
+        <v>37</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G39" s="12" t="str">
+        <f>全体図!G39</f>
+        <v>上野</v>
+      </c>
+      <c r="H39" s="14" t="str">
+        <f>全体図!H39</f>
+        <v>〇</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="4">
+        <v>38</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" s="12">
+        <f>全体図!G40</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="14">
+        <f>全体図!H40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="4">
+        <v>39</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" s="12">
+        <f>全体図!G41</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="14">
+        <f>全体図!H41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="4">
+        <v>40</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" s="12" t="str">
+        <f>全体図!G42</f>
+        <v>目崎</v>
+      </c>
+      <c r="H42" s="14" t="str">
+        <f>全体図!H42</f>
+        <v>終了</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="4">
+        <v>41</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="12">
+        <f>全体図!G43</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="14">
+        <f>全体図!H43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="4">
+        <v>42</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G44" s="12">
+        <f>全体図!G44</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="14">
+        <f>全体図!H44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="4">
+        <v>43</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G45" s="12">
+        <f>全体図!G45</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="14">
+        <f>全体図!H45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="4">
+        <v>44</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="12">
+        <f>全体図!G46</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="14">
+        <f>全体図!H46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="4">
+        <v>45</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G47" s="12">
+        <f>全体図!G47</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="14">
+        <f>全体図!H47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="4">
+        <v>46</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G48" s="12">
+        <f>全体図!G48</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="14">
+        <f>全体図!H48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="4">
+        <v>47</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G49" s="12">
+        <f>全体図!G49</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="14">
+        <f>全体図!H49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="4">
+        <v>48</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G50" s="12">
+        <f>全体図!G50</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="14">
+        <f>全体図!H50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="4">
+        <v>49</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" s="12">
+        <f>全体図!G51</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="14">
+        <f>全体図!H51</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2B82E9-39F8-470A-8355-F61C60AD3CA1}">
+  <dimension ref="B2:H51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="12" t="str">
+        <f>全体図!G3</f>
+        <v>上野</v>
+      </c>
+      <c r="H3" s="14" t="str">
+        <f>全体図!H3</f>
+        <v>〇</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="12" t="str">
+        <f>全体図!G4</f>
+        <v>古川</v>
+      </c>
+      <c r="H4" s="14" t="str">
+        <f>全体図!H4</f>
+        <v>〇</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="12" t="str">
+        <f>全体図!G5</f>
+        <v>目崎</v>
+      </c>
+      <c r="H5" s="14" t="str">
+        <f>全体図!H5</f>
+        <v>〇</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="12" t="str">
+        <f>全体図!G6</f>
+        <v>小神野</v>
+      </c>
+      <c r="H6" s="14" t="str">
+        <f>全体図!H6</f>
+        <v>〇</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="12" t="str">
+        <f>全体図!G7</f>
+        <v>川口</v>
+      </c>
+      <c r="H7" s="14">
+        <f>全体図!H7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="12" t="str">
+        <f>全体図!G8</f>
+        <v>石戸</v>
+      </c>
+      <c r="H8" s="14">
+        <f>全体図!H8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="12">
+        <f>全体図!G9</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
+        <f>全体図!H9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="12" t="str">
+        <f>全体図!G10</f>
+        <v>上野</v>
+      </c>
+      <c r="H10" s="14" t="str">
+        <f>全体図!H10</f>
+        <v>〇</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="4">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="12">
+        <f>全体図!G11</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
+        <f>全体図!H11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="4">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="12" t="str">
+        <f>全体図!G12</f>
+        <v>目崎</v>
+      </c>
+      <c r="H12" s="14" t="str">
+        <f>全体図!H12</f>
+        <v>終了</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="4">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="12">
+        <f>全体図!G13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <f>全体図!H13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="4">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="12">
+        <f>全体図!G14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
+        <f>全体図!H14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="4">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="12" t="str">
+        <f>全体図!G15</f>
+        <v>石戸</v>
+      </c>
+      <c r="H15" s="14" t="str">
+        <f>全体図!H15</f>
+        <v>〇</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="4">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="4">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="12" t="str">
+        <f>全体図!G17</f>
+        <v>川口</v>
+      </c>
+      <c r="H17" s="14" t="str">
+        <f>全体図!H17</f>
+        <v>〇</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="4">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="12" t="str">
+        <f>全体図!G18</f>
+        <v>古川</v>
+      </c>
+      <c r="H18" s="14">
+        <f>全体図!H18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="4">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="12" t="str">
+        <f>全体図!G19</f>
+        <v>目崎</v>
+      </c>
+      <c r="H19" s="14">
+        <f>全体図!H19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="4">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="12" t="str">
+        <f>全体図!G20</f>
+        <v>上野</v>
+      </c>
+      <c r="H20" s="14">
+        <f>全体図!H20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="4">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="12">
+        <f>全体図!G21</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="14">
+        <f>全体図!H21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="4">
+        <v>20</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="12">
+        <f>全体図!G22</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="14">
+        <f>全体図!H22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="4">
+        <v>21</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="12" t="str">
+        <f>全体図!G23</f>
+        <v>石戸</v>
+      </c>
+      <c r="H23" s="14" t="str">
+        <f>全体図!H23</f>
+        <v>〇</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="4">
+        <v>22</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="12" t="str">
+        <f>全体図!G24</f>
+        <v>石戸</v>
+      </c>
+      <c r="H24" s="14" t="str">
+        <f>全体図!H24</f>
+        <v>〇</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="4">
+        <v>23</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="4">
+        <v>24</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="12">
+        <f>全体図!G26</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="14">
+        <f>全体図!H26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="4">
+        <v>25</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="12">
+        <f>全体図!G27</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="14">
+        <f>全体図!H27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="4">
+        <v>26</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="12">
+        <f>全体図!G28</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="14">
+        <f>全体図!H28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="4">
+        <v>27</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="12">
+        <f>全体図!G29</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="14">
+        <f>全体図!H29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="4">
+        <v>28</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="12">
+        <f>全体図!G30</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="14">
+        <f>全体図!H30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="4">
+        <v>29</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="12">
+        <f>全体図!G31</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="14">
+        <f>全体図!H31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="4">
+        <v>30</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" s="12">
+        <f>全体図!G32</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="14">
+        <f>全体図!H32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="4">
+        <v>31</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="12" t="str">
+        <f>全体図!G33</f>
+        <v>目崎</v>
+      </c>
+      <c r="H33" s="14" t="str">
+        <f>全体図!H33</f>
+        <v>終了</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="4">
+        <v>32</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" s="12" t="str">
+        <f>全体図!G34</f>
+        <v>古川</v>
+      </c>
+      <c r="H34" s="14" t="str">
+        <f>全体図!H34</f>
+        <v>〇</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="4">
+        <v>33</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G35" s="12" t="str">
+        <f>全体図!G35</f>
+        <v>目崎</v>
+      </c>
+      <c r="H35" s="14" t="str">
+        <f>全体図!H35</f>
+        <v>〇</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="4">
+        <v>34</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" s="12" t="str">
+        <f>全体図!G36</f>
+        <v>小神野</v>
+      </c>
+      <c r="H36" s="14" t="str">
+        <f>全体図!H36</f>
+        <v>〇</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -6696,1279 +8066,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="〇">
-      <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2B82E9-39F8-470A-8355-F61C60AD3CA1}">
-  <dimension ref="B2:H51"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" customWidth="1"/>
-    <col min="6" max="6" width="58.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="12" t="str">
-        <f>全体図!G3</f>
-        <v>上野</v>
-      </c>
-      <c r="H3" s="14" t="str">
-        <f>全体図!H3</f>
-        <v>〇</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="12">
-        <f>全体図!G4</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="14">
-        <f>全体図!H4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="4">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="12">
-        <f>全体図!G5</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="14">
-        <f>全体図!H5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="4">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="12">
-        <f>全体図!G6</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="14">
-        <f>全体図!H6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="4">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="12">
-        <f>全体図!G7</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="14">
-        <f>全体図!H7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="4">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="12">
-        <f>全体図!G8</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="14">
-        <f>全体図!H8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="4">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="12">
-        <f>全体図!G9</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="14">
-        <f>全体図!H9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="4">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="12" t="str">
-        <f>全体図!G10</f>
-        <v>上野</v>
-      </c>
-      <c r="H10" s="14" t="str">
-        <f>全体図!H10</f>
-        <v>〇</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="4">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="12">
-        <f>全体図!G11</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="14">
-        <f>全体図!H11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="4">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="12" t="str">
-        <f>全体図!G12</f>
-        <v>目崎</v>
-      </c>
-      <c r="H12" s="14" t="str">
-        <f>全体図!H12</f>
-        <v>終了</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="4">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="12">
-        <f>全体図!G13</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="14">
-        <f>全体図!H13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="4">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="12">
-        <f>全体図!G14</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="14">
-        <f>全体図!H14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="4">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="12" t="str">
-        <f>全体図!G15</f>
-        <v>石戸</v>
-      </c>
-      <c r="H15" s="14" t="str">
-        <f>全体図!H15</f>
-        <v>〇</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="4">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="14"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="4">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="12">
-        <f>全体図!G17</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="14">
-        <f>全体図!H17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="4">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="12">
-        <f>全体図!G18</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="14">
-        <f>全体図!H18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="4">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="12">
-        <f>全体図!G19</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="14">
-        <f>全体図!H19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="4">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="12">
-        <f>全体図!G20</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="14">
-        <f>全体図!H20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="4">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="12">
-        <f>全体図!G21</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="14">
-        <f>全体図!H21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="4">
-        <v>20</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="12">
-        <f>全体図!G22</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="14">
-        <f>全体図!H22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="4">
-        <v>21</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="12" t="str">
-        <f>全体図!G23</f>
-        <v>石戸</v>
-      </c>
-      <c r="H23" s="14" t="str">
-        <f>全体図!H23</f>
-        <v>〇</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="4">
-        <v>22</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24" s="12" t="str">
-        <f>全体図!G24</f>
-        <v>石戸</v>
-      </c>
-      <c r="H24" s="14" t="str">
-        <f>全体図!H24</f>
-        <v>〇</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="4">
-        <v>23</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="14"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="4">
-        <v>24</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" s="12">
-        <f>全体図!G26</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="14">
-        <f>全体図!H26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="4">
-        <v>25</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="12">
-        <f>全体図!G27</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="14">
-        <f>全体図!H27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="4">
-        <v>26</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G28" s="12">
-        <f>全体図!G28</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="14">
-        <f>全体図!H28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="4">
-        <v>27</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G29" s="12">
-        <f>全体図!G29</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="14">
-        <f>全体図!H29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="4">
-        <v>28</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G30" s="12">
-        <f>全体図!G30</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="14">
-        <f>全体図!H30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="4">
-        <v>29</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G31" s="12">
-        <f>全体図!G31</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="14">
-        <f>全体図!H31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="4">
-        <v>30</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G32" s="12">
-        <f>全体図!G32</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="14">
-        <f>全体図!H32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="4">
-        <v>31</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="12" t="str">
-        <f>全体図!G33</f>
-        <v>目崎</v>
-      </c>
-      <c r="H33" s="14" t="str">
-        <f>全体図!H33</f>
-        <v>終了</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="4">
-        <v>32</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G34" s="12">
-        <f>全体図!G34</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="14">
-        <f>全体図!H34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="4">
-        <v>33</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G35" s="12">
-        <f>全体図!G35</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="14">
-        <f>全体図!H35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="4">
-        <v>34</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G36" s="12">
-        <f>全体図!G36</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="14">
-        <f>全体図!H36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="4">
-        <v>35</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" s="12">
-        <f>全体図!G37</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="14">
-        <f>全体図!H37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="4">
-        <v>36</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G38" s="12">
-        <f>全体図!G38</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="14">
-        <f>全体図!H38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="4">
-        <v>37</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G39" s="12" t="str">
-        <f>全体図!G39</f>
-        <v>上野</v>
-      </c>
-      <c r="H39" s="14" t="str">
-        <f>全体図!H39</f>
-        <v>〇</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="4">
-        <v>38</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G40" s="12">
-        <f>全体図!G40</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="14">
-        <f>全体図!H40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="4">
-        <v>39</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G41" s="12">
-        <f>全体図!G41</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="14">
-        <f>全体図!H41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="4">
-        <v>40</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G42" s="12" t="str">
-        <f>全体図!G42</f>
-        <v>目崎</v>
-      </c>
-      <c r="H42" s="14" t="str">
-        <f>全体図!H42</f>
-        <v>終了</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="4">
-        <v>41</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="12">
-        <f>全体図!G43</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="14">
-        <f>全体図!H43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="4">
-        <v>42</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G44" s="12">
-        <f>全体図!G44</f>
-        <v>0</v>
-      </c>
-      <c r="H44" s="14">
-        <f>全体図!H44</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="4">
-        <v>43</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G45" s="12">
-        <f>全体図!G45</f>
-        <v>0</v>
-      </c>
-      <c r="H45" s="14">
-        <f>全体図!H45</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="4">
-        <v>44</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" s="12">
-        <f>全体図!G46</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="14">
-        <f>全体図!H46</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="4">
-        <v>45</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G47" s="12">
-        <f>全体図!G47</f>
-        <v>0</v>
-      </c>
-      <c r="H47" s="14">
-        <f>全体図!H47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="4">
-        <v>46</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G48" s="12">
-        <f>全体図!G48</f>
-        <v>0</v>
-      </c>
-      <c r="H48" s="14">
-        <f>全体図!H48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="4">
-        <v>47</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G49" s="12">
-        <f>全体図!G49</f>
-        <v>0</v>
-      </c>
-      <c r="H49" s="14">
-        <f>全体図!H49</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="4">
-        <v>48</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G50" s="12">
-        <f>全体図!G50</f>
-        <v>0</v>
-      </c>
-      <c r="H50" s="14">
-        <f>全体図!H50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="4">
-        <v>49</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G51" s="12">
-        <f>全体図!G51</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="14">
-        <f>全体図!H51</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="〇">
-      <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="〇">
-      <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8059,13 +8156,13 @@
       <c r="F4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="15" t="str">
         <f>全体図!G4</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="15">
+        <v>古川</v>
+      </c>
+      <c r="H4" s="15" t="str">
         <f>全体図!H4</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
@@ -8088,13 +8185,13 @@
       <c r="F5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="15" t="str">
         <f>全体図!G5</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="15">
+        <v>目崎</v>
+      </c>
+      <c r="H5" s="15" t="str">
         <f>全体図!H5</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
@@ -8117,13 +8214,13 @@
       <c r="F6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="15" t="str">
         <f>全体図!G6</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
+        <v>小神野</v>
+      </c>
+      <c r="H6" s="15" t="str">
         <f>全体図!H6</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -8146,9 +8243,9 @@
       <c r="F7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="15" t="str">
         <f>全体図!G7</f>
-        <v>0</v>
+        <v>川口</v>
       </c>
       <c r="H7" s="15">
         <f>全体図!H7</f>
@@ -8175,9 +8272,9 @@
       <c r="F8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="15" t="str">
         <f>全体図!G8</f>
-        <v>0</v>
+        <v>石戸</v>
       </c>
       <c r="H8" s="15">
         <f>全体図!H8</f>
@@ -8422,13 +8519,13 @@
       <c r="F17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="15" t="str">
         <f>全体図!G17</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="15">
+        <v>川口</v>
+      </c>
+      <c r="H17" s="15" t="str">
         <f>全体図!H17</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
@@ -8451,9 +8548,9 @@
       <c r="F18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="15" t="str">
         <f>全体図!G18</f>
-        <v>0</v>
+        <v>古川</v>
       </c>
       <c r="H18" s="15">
         <f>全体図!H18</f>
@@ -8480,9 +8577,9 @@
       <c r="F19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="15" t="str">
         <f>全体図!G19</f>
-        <v>0</v>
+        <v>目崎</v>
       </c>
       <c r="H19" s="15">
         <f>全体図!H19</f>
@@ -8509,9 +8606,9 @@
       <c r="F20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="15" t="str">
         <f>全体図!G20</f>
-        <v>0</v>
+        <v>上野</v>
       </c>
       <c r="H20" s="15">
         <f>全体図!H20</f>
@@ -8901,13 +8998,13 @@
       <c r="F34" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="15" t="str">
         <f>全体図!G34</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="15">
+        <v>古川</v>
+      </c>
+      <c r="H34" s="15" t="str">
         <f>全体図!H34</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
@@ -8930,13 +9027,13 @@
       <c r="F35" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="15" t="str">
         <f>全体図!G35</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="15">
+        <v>目崎</v>
+      </c>
+      <c r="H35" s="15" t="str">
         <f>全体図!H35</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="17"/>
@@ -8959,13 +9056,13 @@
       <c r="F36" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="15" t="str">
         <f>全体図!G36</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="15">
+        <v>小神野</v>
+      </c>
+      <c r="H36" s="15" t="str">
         <f>全体図!H36</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
@@ -9397,17 +9494,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="37" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="36" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9499,13 +9596,13 @@
       <c r="F4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="15" t="str">
         <f>全体図!G4</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="15">
+        <v>古川</v>
+      </c>
+      <c r="H4" s="15" t="str">
         <f>全体図!H4</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
@@ -9533,13 +9630,13 @@
       <c r="F5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="15" t="str">
         <f>全体図!G5</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="15">
+        <v>目崎</v>
+      </c>
+      <c r="H5" s="15" t="str">
         <f>全体図!H5</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
@@ -9567,13 +9664,13 @@
       <c r="F6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="15" t="str">
         <f>全体図!G6</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
+        <v>小神野</v>
+      </c>
+      <c r="H6" s="15" t="str">
         <f>全体図!H6</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -9601,9 +9698,9 @@
       <c r="F7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="15" t="str">
         <f>全体図!G7</f>
-        <v>0</v>
+        <v>川口</v>
       </c>
       <c r="H7" s="15">
         <f>全体図!H7</f>
@@ -9634,9 +9731,9 @@
       <c r="F8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="12" t="str">
         <f>全体図!G8</f>
-        <v>0</v>
+        <v>石戸</v>
       </c>
       <c r="H8" s="12">
         <f>全体図!H8</f>
@@ -9899,13 +9996,13 @@
       <c r="F17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="15" t="str">
         <f>全体図!G17</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="15">
+        <v>川口</v>
+      </c>
+      <c r="H17" s="15" t="str">
         <f>全体図!H17</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
@@ -9933,9 +10030,9 @@
       <c r="F18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="15" t="str">
         <f>全体図!G18</f>
-        <v>0</v>
+        <v>古川</v>
       </c>
       <c r="H18" s="15">
         <f>全体図!H18</f>
@@ -9967,9 +10064,9 @@
       <c r="F19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="15" t="str">
         <f>全体図!G19</f>
-        <v>0</v>
+        <v>目崎</v>
       </c>
       <c r="H19" s="15">
         <f>全体図!H19</f>
@@ -10001,9 +10098,9 @@
       <c r="F20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="15" t="str">
         <f>全体図!G20</f>
-        <v>0</v>
+        <v>上野</v>
       </c>
       <c r="H20" s="15">
         <f>全体図!H20</f>
@@ -10453,13 +10550,13 @@
       <c r="F34" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="15" t="str">
         <f>全体図!G34</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="15">
+        <v>古川</v>
+      </c>
+      <c r="H34" s="15" t="str">
         <f>全体図!H34</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
@@ -10487,13 +10584,13 @@
       <c r="F35" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="15" t="str">
         <f>全体図!G35</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="15">
+        <v>目崎</v>
+      </c>
+      <c r="H35" s="15" t="str">
         <f>全体図!H35</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="17"/>
@@ -10521,13 +10618,13 @@
       <c r="F36" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="15" t="str">
         <f>全体図!G36</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="15">
+        <v>小神野</v>
+      </c>
+      <c r="H36" s="15" t="str">
         <f>全体図!H36</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
@@ -11028,17 +11125,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="31" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11126,13 +11223,13 @@
       <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="12" t="str">
         <f>全体図!G4</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="12">
+        <v>古川</v>
+      </c>
+      <c r="H4" s="12" t="str">
         <f>全体図!H4</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -11151,13 +11248,13 @@
       <c r="F5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="15" t="str">
         <f>全体図!G5</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="15">
+        <v>目崎</v>
+      </c>
+      <c r="H5" s="15" t="str">
         <f>全体図!H5</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -11176,13 +11273,13 @@
       <c r="F6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="15" t="str">
         <f>全体図!G6</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
+        <v>小神野</v>
+      </c>
+      <c r="H6" s="15" t="str">
         <f>全体図!H6</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -11201,9 +11298,9 @@
       <c r="F7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="15" t="str">
         <f>全体図!G7</f>
-        <v>0</v>
+        <v>川口</v>
       </c>
       <c r="H7" s="15">
         <f>全体図!H7</f>
@@ -11226,9 +11323,9 @@
       <c r="F8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="15" t="str">
         <f>全体図!G8</f>
-        <v>0</v>
+        <v>石戸</v>
       </c>
       <c r="H8" s="15">
         <f>全体図!H8</f>
@@ -11445,13 +11542,13 @@
       <c r="F17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="15" t="str">
         <f>全体図!G17</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="15">
+        <v>川口</v>
+      </c>
+      <c r="H17" s="15" t="str">
         <f>全体図!H17</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -11470,9 +11567,9 @@
       <c r="F18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="15" t="str">
         <f>全体図!G18</f>
-        <v>0</v>
+        <v>古川</v>
       </c>
       <c r="H18" s="15">
         <f>全体図!H18</f>
@@ -11495,9 +11592,9 @@
       <c r="F19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="15" t="str">
         <f>全体図!G19</f>
-        <v>0</v>
+        <v>目崎</v>
       </c>
       <c r="H19" s="15">
         <f>全体図!H19</f>
@@ -11520,9 +11617,9 @@
       <c r="F20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="15" t="str">
         <f>全体図!G20</f>
-        <v>0</v>
+        <v>上野</v>
       </c>
       <c r="H20" s="15">
         <f>全体図!H20</f>
@@ -11864,13 +11961,13 @@
       <c r="F34" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="12" t="str">
         <f>全体図!G34</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="12">
+        <v>古川</v>
+      </c>
+      <c r="H34" s="12" t="str">
         <f>全体図!H34</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -11889,13 +11986,13 @@
       <c r="F35" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="15" t="str">
         <f>全体図!G35</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="15">
+        <v>目崎</v>
+      </c>
+      <c r="H35" s="15" t="str">
         <f>全体図!H35</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -11914,13 +12011,13 @@
       <c r="F36" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="15" t="str">
         <f>全体図!G36</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="15">
+        <v>小神野</v>
+      </c>
+      <c r="H36" s="15" t="str">
         <f>全体図!H36</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -12301,17 +12398,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="28" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="31" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12399,13 +12496,13 @@
       <c r="F4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="15" t="str">
         <f>全体図!G4</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="15">
+        <v>古川</v>
+      </c>
+      <c r="H4" s="15" t="str">
         <f>全体図!H4</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="5" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12424,13 +12521,13 @@
       <c r="F5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="12" t="str">
         <f>全体図!G5</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="12">
+        <v>目崎</v>
+      </c>
+      <c r="H5" s="12" t="str">
         <f>全体図!H5</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -12449,13 +12546,13 @@
       <c r="F6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="15" t="str">
         <f>全体図!G6</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
+        <v>小神野</v>
+      </c>
+      <c r="H6" s="15" t="str">
         <f>全体図!H6</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -12474,9 +12571,9 @@
       <c r="F7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="15" t="str">
         <f>全体図!G7</f>
-        <v>0</v>
+        <v>川口</v>
       </c>
       <c r="H7" s="15">
         <f>全体図!H7</f>
@@ -12499,9 +12596,9 @@
       <c r="F8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="15" t="str">
         <f>全体図!G8</f>
-        <v>0</v>
+        <v>石戸</v>
       </c>
       <c r="H8" s="15">
         <f>全体図!H8</f>
@@ -12718,13 +12815,13 @@
       <c r="F17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="15" t="str">
         <f>全体図!G17</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="15">
+        <v>川口</v>
+      </c>
+      <c r="H17" s="15" t="str">
         <f>全体図!H17</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -12743,9 +12840,9 @@
       <c r="F18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="15" t="str">
         <f>全体図!G18</f>
-        <v>0</v>
+        <v>古川</v>
       </c>
       <c r="H18" s="15">
         <f>全体図!H18</f>
@@ -12768,9 +12865,9 @@
       <c r="F19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="15" t="str">
         <f>全体図!G19</f>
-        <v>0</v>
+        <v>目崎</v>
       </c>
       <c r="H19" s="15">
         <f>全体図!H19</f>
@@ -12793,9 +12890,9 @@
       <c r="F20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="15" t="str">
         <f>全体図!G20</f>
-        <v>0</v>
+        <v>上野</v>
       </c>
       <c r="H20" s="15">
         <f>全体図!H20</f>
@@ -13137,13 +13234,13 @@
       <c r="F34" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="15" t="str">
         <f>全体図!G34</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="15">
+        <v>古川</v>
+      </c>
+      <c r="H34" s="15" t="str">
         <f>全体図!H34</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="35" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13162,13 +13259,13 @@
       <c r="F35" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="12" t="str">
         <f>全体図!G35</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="12">
+        <v>目崎</v>
+      </c>
+      <c r="H35" s="12" t="str">
         <f>全体図!H35</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -13187,13 +13284,13 @@
       <c r="F36" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="15" t="str">
         <f>全体図!G36</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="15">
+        <v>小神野</v>
+      </c>
+      <c r="H36" s="15" t="str">
         <f>全体図!H36</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -13574,17 +13671,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="26" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="28" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13672,13 +13769,13 @@
       <c r="F4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="15" t="str">
         <f>全体図!G4</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="15">
+        <v>古川</v>
+      </c>
+      <c r="H4" s="15" t="str">
         <f>全体図!H4</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -13697,13 +13794,13 @@
       <c r="F5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="15" t="str">
         <f>全体図!G5</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="15">
+        <v>目崎</v>
+      </c>
+      <c r="H5" s="15" t="str">
         <f>全体図!H5</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="6" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13722,13 +13819,13 @@
       <c r="F6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="12" t="str">
         <f>全体図!G6</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="12">
+        <v>小神野</v>
+      </c>
+      <c r="H6" s="12" t="str">
         <f>全体図!H6</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -13747,9 +13844,9 @@
       <c r="F7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="15" t="str">
         <f>全体図!G7</f>
-        <v>0</v>
+        <v>川口</v>
       </c>
       <c r="H7" s="15">
         <f>全体図!H7</f>
@@ -13772,9 +13869,9 @@
       <c r="F8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="15" t="str">
         <f>全体図!G8</f>
-        <v>0</v>
+        <v>石戸</v>
       </c>
       <c r="H8" s="15">
         <f>全体図!H8</f>
@@ -13991,13 +14088,13 @@
       <c r="F17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="15" t="str">
         <f>全体図!G17</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="15">
+        <v>川口</v>
+      </c>
+      <c r="H17" s="15" t="str">
         <f>全体図!H17</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -14016,9 +14113,9 @@
       <c r="F18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="15" t="str">
         <f>全体図!G18</f>
-        <v>0</v>
+        <v>古川</v>
       </c>
       <c r="H18" s="15">
         <f>全体図!H18</f>
@@ -14041,9 +14138,9 @@
       <c r="F19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="15" t="str">
         <f>全体図!G19</f>
-        <v>0</v>
+        <v>目崎</v>
       </c>
       <c r="H19" s="15">
         <f>全体図!H19</f>
@@ -14066,9 +14163,9 @@
       <c r="F20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="15" t="str">
         <f>全体図!G20</f>
-        <v>0</v>
+        <v>上野</v>
       </c>
       <c r="H20" s="15">
         <f>全体図!H20</f>
@@ -14410,13 +14507,13 @@
       <c r="F34" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="15" t="str">
         <f>全体図!G34</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="15">
+        <v>古川</v>
+      </c>
+      <c r="H34" s="15" t="str">
         <f>全体図!H34</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -14435,13 +14532,13 @@
       <c r="F35" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="15" t="str">
         <f>全体図!G35</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="15">
+        <v>目崎</v>
+      </c>
+      <c r="H35" s="15" t="str">
         <f>全体図!H35</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -14460,13 +14557,13 @@
       <c r="F36" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="15" t="str">
         <f>全体図!G36</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="15">
+        <v>小神野</v>
+      </c>
+      <c r="H36" s="15" t="str">
         <f>全体図!H36</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -14847,17 +14944,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="26" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14945,13 +15042,13 @@
       <c r="F4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="15" t="str">
         <f>全体図!G4</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="15">
+        <v>古川</v>
+      </c>
+      <c r="H4" s="15" t="str">
         <f>全体図!H4</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -14970,13 +15067,13 @@
       <c r="F5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="15" t="str">
         <f>全体図!G5</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="15">
+        <v>目崎</v>
+      </c>
+      <c r="H5" s="15" t="str">
         <f>全体図!H5</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -14995,13 +15092,13 @@
       <c r="F6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="15" t="str">
         <f>全体図!G6</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
+        <v>小神野</v>
+      </c>
+      <c r="H6" s="15" t="str">
         <f>全体図!H6</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -15020,9 +15117,9 @@
       <c r="F7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="15" t="str">
         <f>全体図!G7</f>
-        <v>0</v>
+        <v>川口</v>
       </c>
       <c r="H7" s="15">
         <f>全体図!H7</f>
@@ -15045,9 +15142,9 @@
       <c r="F8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="15" t="str">
         <f>全体図!G8</f>
-        <v>0</v>
+        <v>石戸</v>
       </c>
       <c r="H8" s="15">
         <f>全体図!H8</f>
@@ -15264,13 +15361,13 @@
       <c r="F17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="15" t="str">
         <f>全体図!G17</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="15">
+        <v>川口</v>
+      </c>
+      <c r="H17" s="15" t="str">
         <f>全体図!H17</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -15289,9 +15386,9 @@
       <c r="F18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="15" t="str">
         <f>全体図!G18</f>
-        <v>0</v>
+        <v>古川</v>
       </c>
       <c r="H18" s="15">
         <f>全体図!H18</f>
@@ -15314,9 +15411,9 @@
       <c r="F19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="15" t="str">
         <f>全体図!G19</f>
-        <v>0</v>
+        <v>目崎</v>
       </c>
       <c r="H19" s="15">
         <f>全体図!H19</f>
@@ -15339,9 +15436,9 @@
       <c r="F20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="15" t="str">
         <f>全体図!G20</f>
-        <v>0</v>
+        <v>上野</v>
       </c>
       <c r="H20" s="15">
         <f>全体図!H20</f>
@@ -15683,13 +15780,13 @@
       <c r="F34" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="15" t="str">
         <f>全体図!G34</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="15">
+        <v>古川</v>
+      </c>
+      <c r="H34" s="15" t="str">
         <f>全体図!H34</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -15708,13 +15805,13 @@
       <c r="F35" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="15" t="str">
         <f>全体図!G35</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="15">
+        <v>目崎</v>
+      </c>
+      <c r="H35" s="15" t="str">
         <f>全体図!H35</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -15733,13 +15830,13 @@
       <c r="F36" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="15" t="str">
         <f>全体図!G36</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="15">
+        <v>小神野</v>
+      </c>
+      <c r="H36" s="15" t="str">
         <f>全体図!H36</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -16120,17 +16217,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16218,13 +16315,13 @@
       <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="12" t="str">
         <f>全体図!G4</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="14">
+        <v>古川</v>
+      </c>
+      <c r="H4" s="14" t="str">
         <f>全体図!H4</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -16243,13 +16340,13 @@
       <c r="F5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="12" t="str">
         <f>全体図!G5</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="14">
+        <v>目崎</v>
+      </c>
+      <c r="H5" s="14" t="str">
         <f>全体図!H5</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -16268,13 +16365,13 @@
       <c r="F6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="12" t="str">
         <f>全体図!G6</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="14">
+        <v>小神野</v>
+      </c>
+      <c r="H6" s="14" t="str">
         <f>全体図!H6</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -16293,9 +16390,9 @@
       <c r="F7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="12" t="str">
         <f>全体図!G7</f>
-        <v>0</v>
+        <v>川口</v>
       </c>
       <c r="H7" s="14">
         <f>全体図!H7</f>
@@ -16318,9 +16415,9 @@
       <c r="F8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="12" t="str">
         <f>全体図!G8</f>
-        <v>0</v>
+        <v>石戸</v>
       </c>
       <c r="H8" s="14">
         <f>全体図!H8</f>
@@ -16537,13 +16634,13 @@
       <c r="F17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="12" t="str">
         <f>全体図!G17</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="14">
+        <v>川口</v>
+      </c>
+      <c r="H17" s="14" t="str">
         <f>全体図!H17</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -16562,9 +16659,9 @@
       <c r="F18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="12" t="str">
         <f>全体図!G18</f>
-        <v>0</v>
+        <v>古川</v>
       </c>
       <c r="H18" s="14">
         <f>全体図!H18</f>
@@ -16587,9 +16684,9 @@
       <c r="F19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="12" t="str">
         <f>全体図!G19</f>
-        <v>0</v>
+        <v>目崎</v>
       </c>
       <c r="H19" s="14">
         <f>全体図!H19</f>
@@ -16612,9 +16709,9 @@
       <c r="F20" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="12" t="str">
         <f>全体図!G20</f>
-        <v>0</v>
+        <v>上野</v>
       </c>
       <c r="H20" s="14">
         <f>全体図!H20</f>
@@ -16956,13 +17053,13 @@
       <c r="F34" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="12" t="str">
         <f>全体図!G34</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="14">
+        <v>古川</v>
+      </c>
+      <c r="H34" s="14" t="str">
         <f>全体図!H34</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -16981,13 +17078,13 @@
       <c r="F35" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="12" t="str">
         <f>全体図!G35</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="14">
+        <v>目崎</v>
+      </c>
+      <c r="H35" s="14" t="str">
         <f>全体図!H35</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -17006,13 +17103,13 @@
       <c r="F36" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="12" t="str">
         <f>全体図!G36</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="14">
+        <v>小神野</v>
+      </c>
+      <c r="H36" s="14" t="str">
         <f>全体図!H36</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -17393,17 +17490,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17491,13 +17588,13 @@
       <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="12" t="str">
         <f>全体図!G4</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="14">
+        <v>古川</v>
+      </c>
+      <c r="H4" s="14" t="str">
         <f>全体図!H4</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -17516,13 +17613,13 @@
       <c r="F5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="12" t="str">
         <f>全体図!G5</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="14">
+        <v>目崎</v>
+      </c>
+      <c r="H5" s="14" t="str">
         <f>全体図!H5</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -17541,13 +17638,13 @@
       <c r="F6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="12" t="str">
         <f>全体図!G6</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="14">
+        <v>小神野</v>
+      </c>
+      <c r="H6" s="14" t="str">
         <f>全体図!H6</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -17566,9 +17663,9 @@
       <c r="F7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="12" t="str">
         <f>全体図!G7</f>
-        <v>0</v>
+        <v>川口</v>
       </c>
       <c r="H7" s="14">
         <f>全体図!H7</f>
@@ -17591,9 +17688,9 @@
       <c r="F8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="12" t="str">
         <f>全体図!G8</f>
-        <v>0</v>
+        <v>石戸</v>
       </c>
       <c r="H8" s="14">
         <f>全体図!H8</f>
@@ -17810,13 +17907,13 @@
       <c r="F17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="12" t="str">
         <f>全体図!G17</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="14">
+        <v>川口</v>
+      </c>
+      <c r="H17" s="14" t="str">
         <f>全体図!H17</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -17835,9 +17932,9 @@
       <c r="F18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="12" t="str">
         <f>全体図!G18</f>
-        <v>0</v>
+        <v>古川</v>
       </c>
       <c r="H18" s="14">
         <f>全体図!H18</f>
@@ -17860,9 +17957,9 @@
       <c r="F19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="12" t="str">
         <f>全体図!G19</f>
-        <v>0</v>
+        <v>目崎</v>
       </c>
       <c r="H19" s="14">
         <f>全体図!H19</f>
@@ -17885,9 +17982,9 @@
       <c r="F20" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="12" t="str">
         <f>全体図!G20</f>
-        <v>0</v>
+        <v>上野</v>
       </c>
       <c r="H20" s="14">
         <f>全体図!H20</f>
@@ -18229,13 +18326,13 @@
       <c r="F34" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="12" t="str">
         <f>全体図!G34</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="14">
+        <v>古川</v>
+      </c>
+      <c r="H34" s="14" t="str">
         <f>全体図!H34</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -18254,13 +18351,13 @@
       <c r="F35" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="12" t="str">
         <f>全体図!G35</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="14">
+        <v>目崎</v>
+      </c>
+      <c r="H35" s="14" t="str">
         <f>全体図!H35</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -18279,13 +18376,13 @@
       <c r="F36" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="12" t="str">
         <f>全体図!G36</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="14">
+        <v>小神野</v>
+      </c>
+      <c r="H36" s="14" t="str">
         <f>全体図!H36</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -18666,17 +18763,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18685,6 +18782,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -18855,22 +18967,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18887,29 +19009,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/ファイル構成一覧表_D3.xlsx
+++ b/doc/ファイル構成一覧表_D3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3E4E9D-2609-4D59-B42D-D5057F83F9F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F95143B-A9AC-40FA-B614-EA3CE67A2654}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2680" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2683" uniqueCount="121">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1161,7 +1161,67 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="48">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1895,7 +1955,7 @@
   <dimension ref="B2:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1974,7 +2034,7 @@
         <v>120</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -1997,7 +2057,7 @@
         <v>111</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2275,7 +2335,9 @@
       <c r="G18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H18" s="6"/>
+      <c r="H18" s="6" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="4">
@@ -2442,8 +2504,12 @@
       <c r="F26" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="6"/>
+      <c r="G26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="4">
@@ -2602,7 +2668,7 @@
         <v>120</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2625,7 +2691,7 @@
         <v>111</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2648,7 +2714,7 @@
         <v>117</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2946,24 +3012,34 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H25:H33 H17:H23 H1:H5 H37:H1048576 H7:H15">
-    <cfRule type="containsText" dxfId="41" priority="6" operator="containsText" text="〇">
+  <conditionalFormatting sqref="H25 H37:H1048576 H7:H15 H1:H5 H17:H23 H27:H33">
+    <cfRule type="containsText" dxfId="47" priority="11" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="40" priority="5" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="46" priority="10" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="39" priority="4" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="45" priority="9" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34:H35">
+  <conditionalFormatting sqref="H6">
+    <cfRule type="containsText" dxfId="42" priority="6" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="〇">
-      <formula>NOT(ISERROR(SEARCH("〇",H34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("〇",H35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
@@ -2971,9 +3047,9 @@
       <formula>NOT(ISERROR(SEARCH("〇",H36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
+  <conditionalFormatting sqref="H26">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="〇">
-      <formula>NOT(ISERROR(SEARCH("〇",H6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("〇",H26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3067,7 +3143,7 @@
       </c>
       <c r="H4" s="14" t="str">
         <f>全体図!H4</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3092,7 +3168,7 @@
       </c>
       <c r="H5" s="14" t="str">
         <f>全体図!H5</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3409,9 +3485,9 @@
         <f>全体図!G18</f>
         <v>古川</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="14" t="str">
         <f>全体図!H18</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3599,13 +3675,13 @@
       <c r="F26" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="12" t="str">
         <f>全体図!G26</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="14">
+        <v>川口</v>
+      </c>
+      <c r="H26" s="14" t="str">
         <f>全体図!H26</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3805,7 +3881,7 @@
       </c>
       <c r="H34" s="14" t="str">
         <f>全体図!H34</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3830,7 +3906,7 @@
       </c>
       <c r="H35" s="14" t="str">
         <f>全体図!H35</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3855,7 +3931,7 @@
       </c>
       <c r="H36" s="14" t="str">
         <f>全体図!H36</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -4236,17 +4312,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4340,7 +4416,7 @@
       </c>
       <c r="H4" s="14" t="str">
         <f>全体図!H4</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -4365,7 +4441,7 @@
       </c>
       <c r="H5" s="14" t="str">
         <f>全体図!H5</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -4682,9 +4758,9 @@
         <f>全体図!G18</f>
         <v>古川</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="14" t="str">
         <f>全体図!H18</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -4872,13 +4948,13 @@
       <c r="F26" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="12" t="str">
         <f>全体図!G26</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="14">
+        <v>川口</v>
+      </c>
+      <c r="H26" s="14" t="str">
         <f>全体図!H26</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -5078,7 +5154,7 @@
       </c>
       <c r="H34" s="14" t="str">
         <f>全体図!H34</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -5103,7 +5179,7 @@
       </c>
       <c r="H35" s="14" t="str">
         <f>全体図!H35</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -5128,7 +5204,7 @@
       </c>
       <c r="H36" s="14" t="str">
         <f>全体図!H36</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -5509,17 +5585,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5613,7 +5689,7 @@
       </c>
       <c r="H4" s="14" t="str">
         <f>全体図!H4</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -5638,7 +5714,7 @@
       </c>
       <c r="H5" s="14" t="str">
         <f>全体図!H5</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -5955,9 +6031,9 @@
         <f>全体図!G18</f>
         <v>古川</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="14" t="str">
         <f>全体図!H18</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -6145,13 +6221,13 @@
       <c r="F26" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="12" t="str">
         <f>全体図!G26</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="14">
+        <v>川口</v>
+      </c>
+      <c r="H26" s="14" t="str">
         <f>全体図!H26</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -6351,7 +6427,7 @@
       </c>
       <c r="H34" s="14" t="str">
         <f>全体図!H34</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -6376,7 +6452,7 @@
       </c>
       <c r="H35" s="14" t="str">
         <f>全体図!H35</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -6401,7 +6477,7 @@
       </c>
       <c r="H36" s="14" t="str">
         <f>全体図!H36</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -6782,17 +6858,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6886,7 +6962,7 @@
       </c>
       <c r="H4" s="14" t="str">
         <f>全体図!H4</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -6911,7 +6987,7 @@
       </c>
       <c r="H5" s="14" t="str">
         <f>全体図!H5</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -7228,9 +7304,9 @@
         <f>全体図!G18</f>
         <v>古川</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="14" t="str">
         <f>全体図!H18</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -7418,13 +7494,13 @@
       <c r="F26" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="12" t="str">
         <f>全体図!G26</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="14">
+        <v>川口</v>
+      </c>
+      <c r="H26" s="14" t="str">
         <f>全体図!H26</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -7624,7 +7700,7 @@
       </c>
       <c r="H34" s="14" t="str">
         <f>全体図!H34</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -7649,7 +7725,7 @@
       </c>
       <c r="H35" s="14" t="str">
         <f>全体図!H35</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -7674,7 +7750,7 @@
       </c>
       <c r="H36" s="14" t="str">
         <f>全体図!H36</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -8055,17 +8131,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8162,7 +8238,7 @@
       </c>
       <c r="H4" s="15" t="str">
         <f>全体図!H4</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
@@ -8191,7 +8267,7 @@
       </c>
       <c r="H5" s="15" t="str">
         <f>全体図!H5</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
@@ -8552,9 +8628,9 @@
         <f>全体図!G18</f>
         <v>古川</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="15" t="str">
         <f>全体図!H18</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
@@ -8770,13 +8846,13 @@
       <c r="F26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="15" t="str">
         <f>全体図!G26</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="15">
+        <v>川口</v>
+      </c>
+      <c r="H26" s="15" t="str">
         <f>全体図!H26</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
@@ -9004,7 +9080,7 @@
       </c>
       <c r="H34" s="15" t="str">
         <f>全体図!H34</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
@@ -9033,7 +9109,7 @@
       </c>
       <c r="H35" s="15" t="str">
         <f>全体図!H35</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="17"/>
@@ -9062,7 +9138,7 @@
       </c>
       <c r="H36" s="15" t="str">
         <f>全体図!H36</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
@@ -9494,17 +9570,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="37" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="40" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="36" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9602,7 +9678,7 @@
       </c>
       <c r="H4" s="15" t="str">
         <f>全体図!H4</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
@@ -9636,7 +9712,7 @@
       </c>
       <c r="H5" s="15" t="str">
         <f>全体図!H5</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
@@ -10034,9 +10110,9 @@
         <f>全体図!G18</f>
         <v>古川</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="15" t="str">
         <f>全体図!H18</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
@@ -10287,13 +10363,13 @@
       <c r="F26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="15" t="str">
         <f>全体図!G26</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="15">
+        <v>川口</v>
+      </c>
+      <c r="H26" s="15" t="str">
         <f>全体図!H26</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
@@ -10556,7 +10632,7 @@
       </c>
       <c r="H34" s="15" t="str">
         <f>全体図!H34</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
@@ -10590,7 +10666,7 @@
       </c>
       <c r="H35" s="15" t="str">
         <f>全体図!H35</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="17"/>
@@ -10624,7 +10700,7 @@
       </c>
       <c r="H36" s="15" t="str">
         <f>全体図!H36</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
@@ -11125,17 +11201,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="37" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="36" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11229,7 +11305,7 @@
       </c>
       <c r="H4" s="12" t="str">
         <f>全体図!H4</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -11254,7 +11330,7 @@
       </c>
       <c r="H5" s="15" t="str">
         <f>全体図!H5</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -11571,9 +11647,9 @@
         <f>全体図!G18</f>
         <v>古川</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="15" t="str">
         <f>全体図!H18</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -11761,13 +11837,13 @@
       <c r="F26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="15" t="str">
         <f>全体図!G26</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="15">
+        <v>川口</v>
+      </c>
+      <c r="H26" s="15" t="str">
         <f>全体図!H26</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -11967,7 +12043,7 @@
       </c>
       <c r="H34" s="12" t="str">
         <f>全体図!H34</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -11992,7 +12068,7 @@
       </c>
       <c r="H35" s="15" t="str">
         <f>全体図!H35</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -12017,7 +12093,7 @@
       </c>
       <c r="H36" s="15" t="str">
         <f>全体図!H36</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -12398,17 +12474,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="31" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12502,7 +12578,7 @@
       </c>
       <c r="H4" s="15" t="str">
         <f>全体図!H4</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="5" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12527,7 +12603,7 @@
       </c>
       <c r="H5" s="12" t="str">
         <f>全体図!H5</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -12844,9 +12920,9 @@
         <f>全体図!G18</f>
         <v>古川</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="15" t="str">
         <f>全体図!H18</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -13034,13 +13110,13 @@
       <c r="F26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="15" t="str">
         <f>全体図!G26</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="15">
+        <v>川口</v>
+      </c>
+      <c r="H26" s="15" t="str">
         <f>全体図!H26</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -13240,7 +13316,7 @@
       </c>
       <c r="H34" s="15" t="str">
         <f>全体図!H34</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="35" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13265,7 +13341,7 @@
       </c>
       <c r="H35" s="12" t="str">
         <f>全体図!H35</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -13290,7 +13366,7 @@
       </c>
       <c r="H36" s="15" t="str">
         <f>全体図!H36</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -13671,17 +13747,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="28" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="31" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13775,7 +13851,7 @@
       </c>
       <c r="H4" s="15" t="str">
         <f>全体図!H4</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -13800,7 +13876,7 @@
       </c>
       <c r="H5" s="15" t="str">
         <f>全体図!H5</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="6" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -14117,9 +14193,9 @@
         <f>全体図!G18</f>
         <v>古川</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="15" t="str">
         <f>全体図!H18</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -14307,13 +14383,13 @@
       <c r="F26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="15" t="str">
         <f>全体図!G26</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="15">
+        <v>川口</v>
+      </c>
+      <c r="H26" s="15" t="str">
         <f>全体図!H26</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -14513,7 +14589,7 @@
       </c>
       <c r="H34" s="15" t="str">
         <f>全体図!H34</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -14538,7 +14614,7 @@
       </c>
       <c r="H35" s="15" t="str">
         <f>全体図!H35</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -14563,7 +14639,7 @@
       </c>
       <c r="H36" s="15" t="str">
         <f>全体図!H36</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -14944,17 +15020,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="26" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="28" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15048,7 +15124,7 @@
       </c>
       <c r="H4" s="15" t="str">
         <f>全体図!H4</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -15073,7 +15149,7 @@
       </c>
       <c r="H5" s="15" t="str">
         <f>全体図!H5</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -15390,9 +15466,9 @@
         <f>全体図!G18</f>
         <v>古川</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="15" t="str">
         <f>全体図!H18</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -15580,13 +15656,13 @@
       <c r="F26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="15" t="str">
         <f>全体図!G26</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="15">
+        <v>川口</v>
+      </c>
+      <c r="H26" s="15" t="str">
         <f>全体図!H26</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -15786,7 +15862,7 @@
       </c>
       <c r="H34" s="15" t="str">
         <f>全体図!H34</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -15811,7 +15887,7 @@
       </c>
       <c r="H35" s="15" t="str">
         <f>全体図!H35</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -15836,7 +15912,7 @@
       </c>
       <c r="H36" s="15" t="str">
         <f>全体図!H36</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -16217,17 +16293,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="26" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16321,7 +16397,7 @@
       </c>
       <c r="H4" s="14" t="str">
         <f>全体図!H4</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -16346,7 +16422,7 @@
       </c>
       <c r="H5" s="14" t="str">
         <f>全体図!H5</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -16663,9 +16739,9 @@
         <f>全体図!G18</f>
         <v>古川</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="14" t="str">
         <f>全体図!H18</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -16853,13 +16929,13 @@
       <c r="F26" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="12" t="str">
         <f>全体図!G26</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="14">
+        <v>川口</v>
+      </c>
+      <c r="H26" s="14" t="str">
         <f>全体図!H26</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -17059,7 +17135,7 @@
       </c>
       <c r="H34" s="14" t="str">
         <f>全体図!H34</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -17084,7 +17160,7 @@
       </c>
       <c r="H35" s="14" t="str">
         <f>全体図!H35</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -17109,7 +17185,7 @@
       </c>
       <c r="H36" s="14" t="str">
         <f>全体図!H36</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -17490,17 +17566,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17594,7 +17670,7 @@
       </c>
       <c r="H4" s="14" t="str">
         <f>全体図!H4</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -17619,7 +17695,7 @@
       </c>
       <c r="H5" s="14" t="str">
         <f>全体図!H5</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -17936,9 +18012,9 @@
         <f>全体図!G18</f>
         <v>古川</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="14" t="str">
         <f>全体図!H18</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -18126,13 +18202,13 @@
       <c r="F26" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="12" t="str">
         <f>全体図!G26</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="14">
+        <v>川口</v>
+      </c>
+      <c r="H26" s="14" t="str">
         <f>全体図!H26</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -18332,7 +18408,7 @@
       </c>
       <c r="H34" s="14" t="str">
         <f>全体図!H34</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -18357,7 +18433,7 @@
       </c>
       <c r="H35" s="14" t="str">
         <f>全体図!H35</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -18382,7 +18458,7 @@
       </c>
       <c r="H36" s="14" t="str">
         <f>全体図!H36</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -18763,17 +18839,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18782,21 +18858,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -18967,32 +19028,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19009,4 +19060,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/ファイル構成一覧表_D3.xlsx
+++ b/doc/ファイル構成一覧表_D3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F95143B-A9AC-40FA-B614-EA3CE67A2654}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E145A105-B2A8-46FB-AC93-258337C0E0C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2683" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="123">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1019,6 +1019,29 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>POSTER_HEADLINE.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POSTERテーブル内の「投稿ID」「タイトル」「投稿時間」のデータを持つ、エンティティモデル</t>
+    <rPh sb="10" eb="11">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1161,7 +1184,97 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="57">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1952,10 +2065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:H51"/>
+  <dimension ref="B2:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2522,13 +2635,17 @@
         <v>10</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="6"/>
+        <v>122</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="4">
@@ -2541,10 +2658,10 @@
         <v>10</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="6"/>
@@ -2560,10 +2677,10 @@
         <v>10</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="6"/>
@@ -2579,10 +2696,10 @@
         <v>10</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="6"/>
@@ -2598,10 +2715,10 @@
         <v>10</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="6"/>
@@ -2617,10 +2734,10 @@
         <v>10</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="6"/>
@@ -2630,23 +2747,19 @@
         <v>31</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>118</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="6"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="4">
@@ -2659,13 +2772,13 @@
         <v>12</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>118</v>
@@ -2682,13 +2795,13 @@
         <v>12</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>118</v>
@@ -2705,13 +2818,13 @@
         <v>12</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>118</v>
@@ -2728,13 +2841,17 @@
         <v>12</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="4">
@@ -2747,10 +2864,10 @@
         <v>12</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="6"/>
@@ -2766,17 +2883,13 @@
         <v>12</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>113</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="6"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="4">
@@ -2789,13 +2902,17 @@
         <v>12</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="6"/>
+        <v>72</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="4">
@@ -2808,10 +2925,10 @@
         <v>12</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="6"/>
@@ -2827,36 +2944,36 @@
         <v>12</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>118</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="6"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="4">
         <v>41</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
+      <c r="C43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="4">
@@ -2869,10 +2986,10 @@
         <v>16</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -2888,10 +3005,10 @@
         <v>16</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
@@ -2901,21 +3018,21 @@
         <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="4">
         <v>45</v>
       </c>
@@ -2926,10 +3043,10 @@
         <v>20</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>94</v>
+        <v>21</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
@@ -2945,10 +3062,10 @@
         <v>20</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
@@ -2964,10 +3081,10 @@
         <v>20</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
@@ -2983,15 +3100,15 @@
         <v>20</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="4">
         <v>49</v>
       </c>
@@ -3002,54 +3119,78 @@
         <v>20</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>25</v>
+        <v>97</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
     </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="4">
+        <v>50</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H25 H37:H1048576 H7:H15 H1:H5 H17:H23 H27:H33">
-    <cfRule type="containsText" dxfId="47" priority="11" operator="containsText" text="〇">
+  <conditionalFormatting sqref="H25 H38:H1048576 H7:H15 H1:H5 H17:H23 H28:H34">
+    <cfRule type="containsText" dxfId="56" priority="12" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="46" priority="10" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="55" priority="11" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="45" priority="9" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="54" priority="10" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="42" priority="6" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="53" priority="7" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="〇">
-      <formula>NOT(ISERROR(SEARCH("〇",H34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="52" priority="6" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="51" priority="4" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H36)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="containsText" dxfId="50" priority="3" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="49" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3059,9 +3200,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC644048-E1AD-4D45-9AB7-851F5C565D03}">
-  <dimension ref="B2:H51"/>
+  <dimension ref="B2:H52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -3695,18 +3838,18 @@
         <v>10</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="12">
+        <v>122</v>
+      </c>
+      <c r="G27" s="12" t="str">
         <f>全体図!G27</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="14">
+        <v>川口</v>
+      </c>
+      <c r="H27" s="14" t="str">
         <f>全体図!H27</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3720,10 +3863,10 @@
         <v>10</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G28" s="12">
         <f>全体図!G28</f>
@@ -3745,10 +3888,10 @@
         <v>10</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G29" s="12">
         <f>全体図!G29</f>
@@ -3770,10 +3913,10 @@
         <v>10</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G30" s="12">
         <f>全体図!G30</f>
@@ -3795,10 +3938,10 @@
         <v>10</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="G31" s="12">
         <f>全体図!G31</f>
@@ -3820,10 +3963,10 @@
         <v>10</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="G32" s="12">
         <f>全体図!G32</f>
@@ -3839,24 +3982,24 @@
         <v>31</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="12" t="str">
+        <v>81</v>
+      </c>
+      <c r="G33" s="12">
         <f>全体図!G33</f>
-        <v>目崎</v>
-      </c>
-      <c r="H33" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="H33" s="14">
         <f>全体図!H33</f>
-        <v>終了</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3870,14 +4013,14 @@
         <v>12</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="G34" s="12" t="str">
         <f>全体図!G34</f>
-        <v>古川</v>
+        <v>目崎</v>
       </c>
       <c r="H34" s="14" t="str">
         <f>全体図!H34</f>
@@ -3895,14 +4038,14 @@
         <v>12</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="G35" s="12" t="str">
         <f>全体図!G35</f>
-        <v>目崎</v>
+        <v>古川</v>
       </c>
       <c r="H35" s="14" t="str">
         <f>全体図!H35</f>
@@ -3920,14 +4063,14 @@
         <v>12</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="G36" s="12" t="str">
         <f>全体図!G36</f>
-        <v>小神野</v>
+        <v>目崎</v>
       </c>
       <c r="H36" s="14" t="str">
         <f>全体図!H36</f>
@@ -3945,18 +4088,18 @@
         <v>12</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" s="12">
+        <v>69</v>
+      </c>
+      <c r="G37" s="12" t="str">
         <f>全体図!G37</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="14">
+        <v>小神野</v>
+      </c>
+      <c r="H37" s="14" t="str">
         <f>全体図!H37</f>
-        <v>0</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3970,10 +4113,10 @@
         <v>12</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G38" s="12">
         <f>全体図!G38</f>
@@ -3995,18 +4138,18 @@
         <v>12</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G39" s="12" t="str">
+        <v>71</v>
+      </c>
+      <c r="G39" s="12">
         <f>全体図!G39</f>
-        <v>上野</v>
-      </c>
-      <c r="H39" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="H39" s="14">
         <f>全体図!H39</f>
-        <v>〇</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -4020,18 +4163,18 @@
         <v>12</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G40" s="12">
+        <v>72</v>
+      </c>
+      <c r="G40" s="12" t="str">
         <f>全体図!G40</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="14">
+        <v>上野</v>
+      </c>
+      <c r="H40" s="14" t="str">
         <f>全体図!H40</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -4045,10 +4188,10 @@
         <v>12</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G41" s="12">
         <f>全体図!G41</f>
@@ -4070,18 +4213,18 @@
         <v>12</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G42" s="12" t="str">
+        <v>74</v>
+      </c>
+      <c r="G42" s="12">
         <f>全体図!G42</f>
-        <v>目崎</v>
-      </c>
-      <c r="H42" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="H42" s="14">
         <f>全体図!H42</f>
-        <v>終了</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -4089,24 +4232,24 @@
         <v>41</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="12">
+        <v>109</v>
+      </c>
+      <c r="G43" s="12" t="str">
         <f>全体図!G43</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="14">
+        <v>目崎</v>
+      </c>
+      <c r="H43" s="14" t="str">
         <f>全体図!H43</f>
-        <v>0</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -4120,10 +4263,10 @@
         <v>16</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="G44" s="12">
         <f>全体図!G44</f>
@@ -4145,10 +4288,10 @@
         <v>16</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G45" s="12">
         <f>全体図!G45</f>
@@ -4164,16 +4307,16 @@
         <v>44</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="G46" s="12">
         <f>全体図!G46</f>
@@ -4184,7 +4327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="4">
         <v>45</v>
       </c>
@@ -4195,10 +4338,10 @@
         <v>20</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>94</v>
+        <v>21</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="G47" s="12">
         <f>全体図!G47</f>
@@ -4220,10 +4363,10 @@
         <v>20</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G48" s="12">
         <f>全体図!G48</f>
@@ -4245,10 +4388,10 @@
         <v>20</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G49" s="12">
         <f>全体図!G49</f>
@@ -4270,10 +4413,10 @@
         <v>20</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G50" s="12">
         <f>全体図!G50</f>
@@ -4284,7 +4427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="4">
         <v>49</v>
       </c>
@@ -4295,10 +4438,10 @@
         <v>20</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>25</v>
+        <v>97</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="G51" s="12">
         <f>全体図!G51</f>
@@ -4309,21 +4452,51 @@
         <v>0</v>
       </c>
     </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="4">
+        <v>50</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="12">
+        <f>全体図!G52</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="14">
+        <f>全体図!H52</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="〇">
+  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H26 H28:H1048576">
+    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4332,9 +4505,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55929C9-1429-4ADB-9396-65D99D42B784}">
-  <dimension ref="B2:H51"/>
+  <dimension ref="B2:H52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -4968,18 +5143,18 @@
         <v>10</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="12">
+        <v>122</v>
+      </c>
+      <c r="G27" s="12" t="str">
         <f>全体図!G27</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="14">
+        <v>川口</v>
+      </c>
+      <c r="H27" s="14" t="str">
         <f>全体図!H27</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -4993,10 +5168,10 @@
         <v>10</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G28" s="12">
         <f>全体図!G28</f>
@@ -5018,10 +5193,10 @@
         <v>10</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G29" s="12">
         <f>全体図!G29</f>
@@ -5043,10 +5218,10 @@
         <v>10</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G30" s="12">
         <f>全体図!G30</f>
@@ -5068,10 +5243,10 @@
         <v>10</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="G31" s="12">
         <f>全体図!G31</f>
@@ -5093,10 +5268,10 @@
         <v>10</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="G32" s="12">
         <f>全体図!G32</f>
@@ -5112,24 +5287,24 @@
         <v>31</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="12" t="str">
+        <v>81</v>
+      </c>
+      <c r="G33" s="12">
         <f>全体図!G33</f>
-        <v>目崎</v>
-      </c>
-      <c r="H33" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="H33" s="14">
         <f>全体図!H33</f>
-        <v>終了</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -5143,14 +5318,14 @@
         <v>12</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="G34" s="12" t="str">
         <f>全体図!G34</f>
-        <v>古川</v>
+        <v>目崎</v>
       </c>
       <c r="H34" s="14" t="str">
         <f>全体図!H34</f>
@@ -5168,14 +5343,14 @@
         <v>12</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="G35" s="12" t="str">
         <f>全体図!G35</f>
-        <v>目崎</v>
+        <v>古川</v>
       </c>
       <c r="H35" s="14" t="str">
         <f>全体図!H35</f>
@@ -5193,14 +5368,14 @@
         <v>12</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="G36" s="12" t="str">
         <f>全体図!G36</f>
-        <v>小神野</v>
+        <v>目崎</v>
       </c>
       <c r="H36" s="14" t="str">
         <f>全体図!H36</f>
@@ -5218,18 +5393,18 @@
         <v>12</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" s="12">
+        <v>69</v>
+      </c>
+      <c r="G37" s="12" t="str">
         <f>全体図!G37</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="14">
+        <v>小神野</v>
+      </c>
+      <c r="H37" s="14" t="str">
         <f>全体図!H37</f>
-        <v>0</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -5243,10 +5418,10 @@
         <v>12</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G38" s="12">
         <f>全体図!G38</f>
@@ -5268,18 +5443,18 @@
         <v>12</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G39" s="12" t="str">
+        <v>71</v>
+      </c>
+      <c r="G39" s="12">
         <f>全体図!G39</f>
-        <v>上野</v>
-      </c>
-      <c r="H39" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="H39" s="14">
         <f>全体図!H39</f>
-        <v>〇</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -5293,18 +5468,18 @@
         <v>12</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G40" s="12">
+        <v>72</v>
+      </c>
+      <c r="G40" s="12" t="str">
         <f>全体図!G40</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="14">
+        <v>上野</v>
+      </c>
+      <c r="H40" s="14" t="str">
         <f>全体図!H40</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -5318,10 +5493,10 @@
         <v>12</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G41" s="12">
         <f>全体図!G41</f>
@@ -5343,18 +5518,18 @@
         <v>12</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G42" s="12" t="str">
+        <v>74</v>
+      </c>
+      <c r="G42" s="12">
         <f>全体図!G42</f>
-        <v>目崎</v>
-      </c>
-      <c r="H42" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="H42" s="14">
         <f>全体図!H42</f>
-        <v>終了</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -5362,24 +5537,24 @@
         <v>41</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="12">
+        <v>109</v>
+      </c>
+      <c r="G43" s="12" t="str">
         <f>全体図!G43</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="14">
+        <v>目崎</v>
+      </c>
+      <c r="H43" s="14" t="str">
         <f>全体図!H43</f>
-        <v>0</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -5393,10 +5568,10 @@
         <v>16</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="G44" s="12">
         <f>全体図!G44</f>
@@ -5418,10 +5593,10 @@
         <v>16</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G45" s="12">
         <f>全体図!G45</f>
@@ -5437,16 +5612,16 @@
         <v>44</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="G46" s="12">
         <f>全体図!G46</f>
@@ -5457,7 +5632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="4">
         <v>45</v>
       </c>
@@ -5468,10 +5643,10 @@
         <v>20</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>94</v>
+        <v>21</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="G47" s="12">
         <f>全体図!G47</f>
@@ -5493,10 +5668,10 @@
         <v>20</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G48" s="12">
         <f>全体図!G48</f>
@@ -5518,10 +5693,10 @@
         <v>20</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G49" s="12">
         <f>全体図!G49</f>
@@ -5543,10 +5718,10 @@
         <v>20</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G50" s="12">
         <f>全体図!G50</f>
@@ -5557,7 +5732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="4">
         <v>49</v>
       </c>
@@ -5568,10 +5743,10 @@
         <v>20</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>25</v>
+        <v>97</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="G51" s="12">
         <f>全体図!G51</f>
@@ -5582,21 +5757,51 @@
         <v>0</v>
       </c>
     </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="4">
+        <v>50</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="12">
+        <f>全体図!G52</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="14">
+        <f>全体図!H52</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="〇">
+  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H26 H28:H1048576">
+    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5605,9 +5810,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCF0817-3206-463E-8147-94C3D4B8394F}">
-  <dimension ref="B2:H51"/>
+  <dimension ref="B2:H52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -6241,18 +6448,18 @@
         <v>10</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="12">
+        <v>122</v>
+      </c>
+      <c r="G27" s="12" t="str">
         <f>全体図!G27</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="14">
+        <v>川口</v>
+      </c>
+      <c r="H27" s="14" t="str">
         <f>全体図!H27</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -6266,10 +6473,10 @@
         <v>10</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G28" s="12">
         <f>全体図!G28</f>
@@ -6291,10 +6498,10 @@
         <v>10</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G29" s="12">
         <f>全体図!G29</f>
@@ -6316,10 +6523,10 @@
         <v>10</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G30" s="12">
         <f>全体図!G30</f>
@@ -6341,10 +6548,10 @@
         <v>10</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="G31" s="12">
         <f>全体図!G31</f>
@@ -6366,10 +6573,10 @@
         <v>10</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="G32" s="12">
         <f>全体図!G32</f>
@@ -6385,24 +6592,24 @@
         <v>31</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="12" t="str">
+        <v>81</v>
+      </c>
+      <c r="G33" s="12">
         <f>全体図!G33</f>
-        <v>目崎</v>
-      </c>
-      <c r="H33" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="H33" s="14">
         <f>全体図!H33</f>
-        <v>終了</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -6416,14 +6623,14 @@
         <v>12</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="G34" s="12" t="str">
         <f>全体図!G34</f>
-        <v>古川</v>
+        <v>目崎</v>
       </c>
       <c r="H34" s="14" t="str">
         <f>全体図!H34</f>
@@ -6441,14 +6648,14 @@
         <v>12</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="G35" s="12" t="str">
         <f>全体図!G35</f>
-        <v>目崎</v>
+        <v>古川</v>
       </c>
       <c r="H35" s="14" t="str">
         <f>全体図!H35</f>
@@ -6466,14 +6673,14 @@
         <v>12</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="G36" s="12" t="str">
         <f>全体図!G36</f>
-        <v>小神野</v>
+        <v>目崎</v>
       </c>
       <c r="H36" s="14" t="str">
         <f>全体図!H36</f>
@@ -6491,18 +6698,18 @@
         <v>12</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" s="12">
+        <v>69</v>
+      </c>
+      <c r="G37" s="12" t="str">
         <f>全体図!G37</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="14">
+        <v>小神野</v>
+      </c>
+      <c r="H37" s="14" t="str">
         <f>全体図!H37</f>
-        <v>0</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -6516,10 +6723,10 @@
         <v>12</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G38" s="12">
         <f>全体図!G38</f>
@@ -6541,18 +6748,18 @@
         <v>12</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G39" s="12" t="str">
+        <v>71</v>
+      </c>
+      <c r="G39" s="12">
         <f>全体図!G39</f>
-        <v>上野</v>
-      </c>
-      <c r="H39" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="H39" s="14">
         <f>全体図!H39</f>
-        <v>〇</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -6566,18 +6773,18 @@
         <v>12</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G40" s="12">
+        <v>72</v>
+      </c>
+      <c r="G40" s="12" t="str">
         <f>全体図!G40</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="14">
+        <v>上野</v>
+      </c>
+      <c r="H40" s="14" t="str">
         <f>全体図!H40</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -6591,10 +6798,10 @@
         <v>12</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G41" s="12">
         <f>全体図!G41</f>
@@ -6616,18 +6823,18 @@
         <v>12</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G42" s="12" t="str">
+        <v>74</v>
+      </c>
+      <c r="G42" s="12">
         <f>全体図!G42</f>
-        <v>目崎</v>
-      </c>
-      <c r="H42" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="H42" s="14">
         <f>全体図!H42</f>
-        <v>終了</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -6635,24 +6842,24 @@
         <v>41</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="12">
+        <v>109</v>
+      </c>
+      <c r="G43" s="12" t="str">
         <f>全体図!G43</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="14">
+        <v>目崎</v>
+      </c>
+      <c r="H43" s="14" t="str">
         <f>全体図!H43</f>
-        <v>0</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -6666,10 +6873,10 @@
         <v>16</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="G44" s="12">
         <f>全体図!G44</f>
@@ -6691,10 +6898,10 @@
         <v>16</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G45" s="12">
         <f>全体図!G45</f>
@@ -6710,16 +6917,16 @@
         <v>44</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="G46" s="12">
         <f>全体図!G46</f>
@@ -6730,7 +6937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="4">
         <v>45</v>
       </c>
@@ -6741,10 +6948,10 @@
         <v>20</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>94</v>
+        <v>21</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="G47" s="12">
         <f>全体図!G47</f>
@@ -6766,10 +6973,10 @@
         <v>20</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G48" s="12">
         <f>全体図!G48</f>
@@ -6791,10 +6998,10 @@
         <v>20</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G49" s="12">
         <f>全体図!G49</f>
@@ -6816,10 +7023,10 @@
         <v>20</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G50" s="12">
         <f>全体図!G50</f>
@@ -6830,7 +7037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="4">
         <v>49</v>
       </c>
@@ -6841,10 +7048,10 @@
         <v>20</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>25</v>
+        <v>97</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="G51" s="12">
         <f>全体図!G51</f>
@@ -6855,21 +7062,51 @@
         <v>0</v>
       </c>
     </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="4">
+        <v>50</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="12">
+        <f>全体図!G52</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="14">
+        <f>全体図!H52</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="〇">
+  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H26 H28:H1048576">
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6878,9 +7115,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2B82E9-39F8-470A-8355-F61C60AD3CA1}">
-  <dimension ref="B2:H51"/>
+  <dimension ref="B2:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -7514,18 +7753,18 @@
         <v>10</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="12">
+        <v>122</v>
+      </c>
+      <c r="G27" s="12" t="str">
         <f>全体図!G27</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="14">
+        <v>川口</v>
+      </c>
+      <c r="H27" s="14" t="str">
         <f>全体図!H27</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -7539,10 +7778,10 @@
         <v>10</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G28" s="12">
         <f>全体図!G28</f>
@@ -7564,10 +7803,10 @@
         <v>10</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G29" s="12">
         <f>全体図!G29</f>
@@ -7589,10 +7828,10 @@
         <v>10</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G30" s="12">
         <f>全体図!G30</f>
@@ -7614,10 +7853,10 @@
         <v>10</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="G31" s="12">
         <f>全体図!G31</f>
@@ -7639,10 +7878,10 @@
         <v>10</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="G32" s="12">
         <f>全体図!G32</f>
@@ -7658,24 +7897,24 @@
         <v>31</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="12" t="str">
+        <v>81</v>
+      </c>
+      <c r="G33" s="12">
         <f>全体図!G33</f>
-        <v>目崎</v>
-      </c>
-      <c r="H33" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="H33" s="14">
         <f>全体図!H33</f>
-        <v>終了</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -7689,14 +7928,14 @@
         <v>12</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="G34" s="12" t="str">
         <f>全体図!G34</f>
-        <v>古川</v>
+        <v>目崎</v>
       </c>
       <c r="H34" s="14" t="str">
         <f>全体図!H34</f>
@@ -7714,14 +7953,14 @@
         <v>12</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="G35" s="12" t="str">
         <f>全体図!G35</f>
-        <v>目崎</v>
+        <v>古川</v>
       </c>
       <c r="H35" s="14" t="str">
         <f>全体図!H35</f>
@@ -7739,14 +7978,14 @@
         <v>12</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="G36" s="12" t="str">
         <f>全体図!G36</f>
-        <v>小神野</v>
+        <v>目崎</v>
       </c>
       <c r="H36" s="14" t="str">
         <f>全体図!H36</f>
@@ -7764,18 +8003,18 @@
         <v>12</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" s="12">
+        <v>69</v>
+      </c>
+      <c r="G37" s="12" t="str">
         <f>全体図!G37</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="14">
+        <v>小神野</v>
+      </c>
+      <c r="H37" s="14" t="str">
         <f>全体図!H37</f>
-        <v>0</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -7789,10 +8028,10 @@
         <v>12</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G38" s="12">
         <f>全体図!G38</f>
@@ -7814,18 +8053,18 @@
         <v>12</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G39" s="12" t="str">
+        <v>71</v>
+      </c>
+      <c r="G39" s="12">
         <f>全体図!G39</f>
-        <v>上野</v>
-      </c>
-      <c r="H39" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="H39" s="14">
         <f>全体図!H39</f>
-        <v>〇</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -7839,18 +8078,18 @@
         <v>12</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G40" s="12">
+        <v>72</v>
+      </c>
+      <c r="G40" s="12" t="str">
         <f>全体図!G40</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="14">
+        <v>上野</v>
+      </c>
+      <c r="H40" s="14" t="str">
         <f>全体図!H40</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -7864,10 +8103,10 @@
         <v>12</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G41" s="12">
         <f>全体図!G41</f>
@@ -7889,18 +8128,18 @@
         <v>12</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G42" s="12" t="str">
+        <v>74</v>
+      </c>
+      <c r="G42" s="12">
         <f>全体図!G42</f>
-        <v>目崎</v>
-      </c>
-      <c r="H42" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="H42" s="14">
         <f>全体図!H42</f>
-        <v>終了</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -7908,24 +8147,24 @@
         <v>41</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="12">
+        <v>109</v>
+      </c>
+      <c r="G43" s="12" t="str">
         <f>全体図!G43</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="14">
+        <v>目崎</v>
+      </c>
+      <c r="H43" s="14" t="str">
         <f>全体図!H43</f>
-        <v>0</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -7939,10 +8178,10 @@
         <v>16</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="G44" s="12">
         <f>全体図!G44</f>
@@ -7964,10 +8203,10 @@
         <v>16</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G45" s="12">
         <f>全体図!G45</f>
@@ -7983,16 +8222,16 @@
         <v>44</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="G46" s="12">
         <f>全体図!G46</f>
@@ -8003,7 +8242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="4">
         <v>45</v>
       </c>
@@ -8014,10 +8253,10 @@
         <v>20</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>94</v>
+        <v>21</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="G47" s="12">
         <f>全体図!G47</f>
@@ -8039,10 +8278,10 @@
         <v>20</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G48" s="12">
         <f>全体図!G48</f>
@@ -8064,10 +8303,10 @@
         <v>20</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G49" s="12">
         <f>全体図!G49</f>
@@ -8089,10 +8328,10 @@
         <v>20</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G50" s="12">
         <f>全体図!G50</f>
@@ -8103,7 +8342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="4">
         <v>49</v>
       </c>
@@ -8114,10 +8353,10 @@
         <v>20</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>25</v>
+        <v>97</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="G51" s="12">
         <f>全体図!G51</f>
@@ -8128,21 +8367,51 @@
         <v>0</v>
       </c>
     </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="4">
+        <v>50</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="12">
+        <f>全体図!G52</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="14">
+        <f>全体図!H52</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="〇">
+  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H26 H28:H1048576">
+    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8151,9 +8420,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF4503B-A78F-4A54-B62C-10E2468C8C6D}">
-  <dimension ref="A2:K52"/>
+  <dimension ref="A2:K53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -8860,7 +9131,7 @@
     </row>
     <row r="27" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="17"/>
-      <c r="B27" s="2">
+      <c r="B27" s="4">
         <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -8870,18 +9141,18 @@
         <v>10</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="15">
+        <v>122</v>
+      </c>
+      <c r="G27" s="15" t="str">
         <f>全体図!G27</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="15">
+        <v>川口</v>
+      </c>
+      <c r="H27" s="15" t="str">
         <f>全体図!H27</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
@@ -8899,10 +9170,10 @@
         <v>10</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G28" s="15">
         <f>全体図!G28</f>
@@ -8918,7 +9189,7 @@
     </row>
     <row r="29" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="17"/>
-      <c r="B29" s="2">
+      <c r="B29" s="4">
         <v>27</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -8928,10 +9199,10 @@
         <v>10</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G29" s="15">
         <f>全体図!G29</f>
@@ -8957,10 +9228,10 @@
         <v>10</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G30" s="15">
         <f>全体図!G30</f>
@@ -8976,7 +9247,7 @@
     </row>
     <row r="31" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="17"/>
-      <c r="B31" s="2">
+      <c r="B31" s="4">
         <v>29</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -8986,10 +9257,10 @@
         <v>10</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="G31" s="15">
         <f>全体図!G31</f>
@@ -9015,10 +9286,10 @@
         <v>10</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="G32" s="15">
         <f>全体図!G32</f>
@@ -9032,63 +9303,63 @@
       <c r="J32" s="17"/>
       <c r="K32" s="17"/>
     </row>
-    <row r="33" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="17"/>
       <c r="B33" s="4">
         <v>31</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="12" t="str">
+      <c r="C33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="15">
         <f>全体図!G33</f>
-        <v>目崎</v>
-      </c>
-      <c r="H33" s="12" t="str">
+        <v>0</v>
+      </c>
+      <c r="H33" s="15">
         <f>全体図!H33</f>
-        <v>終了</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+    </row>
+    <row r="34" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="2">
         <v>32</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G34" s="15" t="str">
+      <c r="E34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="12" t="str">
         <f>全体図!G34</f>
-        <v>古川</v>
-      </c>
-      <c r="H34" s="15" t="str">
+        <v>目崎</v>
+      </c>
+      <c r="H34" s="12" t="str">
         <f>全体図!H34</f>
         <v>終了</v>
       </c>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
     </row>
     <row r="35" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="17"/>
-      <c r="B35" s="2">
+      <c r="B35" s="4">
         <v>33</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -9098,14 +9369,14 @@
         <v>12</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="G35" s="15" t="str">
         <f>全体図!G35</f>
-        <v>目崎</v>
+        <v>古川</v>
       </c>
       <c r="H35" s="15" t="str">
         <f>全体図!H35</f>
@@ -9127,14 +9398,14 @@
         <v>12</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="G36" s="15" t="str">
         <f>全体図!G36</f>
-        <v>小神野</v>
+        <v>目崎</v>
       </c>
       <c r="H36" s="15" t="str">
         <f>全体図!H36</f>
@@ -9146,7 +9417,7 @@
     </row>
     <row r="37" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="17"/>
-      <c r="B37" s="2">
+      <c r="B37" s="4">
         <v>35</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -9156,18 +9427,18 @@
         <v>12</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" s="15">
+        <v>69</v>
+      </c>
+      <c r="G37" s="15" t="str">
         <f>全体図!G37</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="15">
+        <v>小神野</v>
+      </c>
+      <c r="H37" s="15" t="str">
         <f>全体図!H37</f>
-        <v>0</v>
+        <v>終了</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
@@ -9185,10 +9456,10 @@
         <v>12</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G38" s="15">
         <f>全体図!G38</f>
@@ -9204,7 +9475,7 @@
     </row>
     <row r="39" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="17"/>
-      <c r="B39" s="2">
+      <c r="B39" s="4">
         <v>37</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -9214,18 +9485,18 @@
         <v>12</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G39" s="15" t="str">
+        <v>71</v>
+      </c>
+      <c r="G39" s="15">
         <f>全体図!G39</f>
-        <v>上野</v>
-      </c>
-      <c r="H39" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="H39" s="15">
         <f>全体図!H39</f>
-        <v>〇</v>
+        <v>0</v>
       </c>
       <c r="I39" s="17"/>
       <c r="J39" s="17"/>
@@ -9243,18 +9514,18 @@
         <v>12</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G40" s="15">
+        <v>72</v>
+      </c>
+      <c r="G40" s="15" t="str">
         <f>全体図!G40</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="15">
+        <v>上野</v>
+      </c>
+      <c r="H40" s="15" t="str">
         <f>全体図!H40</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
@@ -9262,7 +9533,7 @@
     </row>
     <row r="41" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="17"/>
-      <c r="B41" s="2">
+      <c r="B41" s="4">
         <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -9272,10 +9543,10 @@
         <v>12</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G41" s="15">
         <f>全体図!G41</f>
@@ -9301,50 +9572,54 @@
         <v>12</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G42" s="15" t="str">
+        <v>74</v>
+      </c>
+      <c r="G42" s="15">
         <f>全体図!G42</f>
-        <v>目崎</v>
-      </c>
-      <c r="H42" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="H42" s="15">
         <f>全体図!H42</f>
-        <v>終了</v>
+        <v>0</v>
       </c>
       <c r="I42" s="17"/>
       <c r="J42" s="17"/>
       <c r="K42" s="17"/>
     </row>
-    <row r="43" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="17"/>
       <c r="B43" s="4">
         <v>41</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="12">
+      <c r="C43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G43" s="15" t="str">
         <f>全体図!G43</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="12">
+        <v>目崎</v>
+      </c>
+      <c r="H43" s="15" t="str">
         <f>全体図!H43</f>
-        <v>0</v>
-      </c>
+        <v>終了</v>
+      </c>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
     </row>
     <row r="44" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="4">
+      <c r="B44" s="2">
         <v>42</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -9354,10 +9629,10 @@
         <v>16</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="G44" s="12">
         <f>全体図!G44</f>
@@ -9368,61 +9643,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="17"/>
-      <c r="B45" s="2">
+    <row r="45" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="4">
         <v>43</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G45" s="12">
+        <f>全体図!G45</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="12">
+        <f>全体図!H45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="17"/>
+      <c r="B46" s="2">
+        <v>44</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G45" s="15">
-        <f>全体図!G45</f>
-        <v>0</v>
-      </c>
-      <c r="H45" s="15">
-        <f>全体図!H45</f>
-        <v>0</v>
-      </c>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-    </row>
-    <row r="46" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="4">
-        <v>44</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" s="12">
+      <c r="G46" s="15">
         <f>全体図!G46</f>
         <v>0</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="15">
         <f>全体図!H46</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" s="17" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+    </row>
+    <row r="47" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="4">
         <v>45</v>
       </c>
@@ -9433,10 +9708,10 @@
         <v>20</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>94</v>
+        <v>21</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="G47" s="12">
         <f>全体図!G47</f>
@@ -9447,38 +9722,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="16" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="17"/>
+    <row r="48" spans="1:11" s="17" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="2">
         <v>46</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G48" s="15">
+      <c r="E48" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G48" s="12">
         <f>全体図!G48</f>
         <v>0</v>
       </c>
-      <c r="H48" s="15">
+      <c r="H48" s="12">
         <f>全体図!H48</f>
         <v>0</v>
       </c>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
     </row>
     <row r="49" spans="1:11" s="16" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="17"/>
-      <c r="B49" s="2">
+      <c r="B49" s="4">
         <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -9488,10 +9759,10 @@
         <v>20</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G49" s="15">
         <f>全体図!G49</f>
@@ -9517,10 +9788,10 @@
         <v>20</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G50" s="15">
         <f>全体図!G50</f>
@@ -9534,9 +9805,9 @@
       <c r="J50" s="17"/>
       <c r="K50" s="17"/>
     </row>
-    <row r="51" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:11" s="16" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="17"/>
-      <c r="B51" s="2">
+      <c r="B51" s="4">
         <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -9546,10 +9817,10 @@
         <v>20</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>25</v>
+        <v>97</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="G51" s="15">
         <f>全体図!G51</f>
@@ -9563,25 +9834,59 @@
       <c r="J51" s="17"/>
       <c r="K51" s="17"/>
     </row>
-    <row r="52" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
+    <row r="52" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="17"/>
+      <c r="B52" s="2">
+        <v>50</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="15">
+        <f>全体図!G52</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="15">
+        <f>全体図!H52</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+    </row>
+    <row r="53" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="〇">
+  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H26 H28:H1048576">
+    <cfRule type="containsText" dxfId="48" priority="4" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="40" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="47" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9591,9 +9896,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92DD289-89BB-43CD-BE39-542667FE732B}">
-  <dimension ref="A2:P52"/>
+  <dimension ref="A2:P53"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -10392,18 +10699,18 @@
         <v>10</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="15">
+        <v>122</v>
+      </c>
+      <c r="G27" s="15" t="str">
         <f>全体図!G27</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="15">
+        <v>川口</v>
+      </c>
+      <c r="H27" s="15" t="str">
         <f>全体図!H27</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
@@ -10426,10 +10733,10 @@
         <v>10</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G28" s="15">
         <f>全体図!G28</f>
@@ -10460,10 +10767,10 @@
         <v>10</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G29" s="15">
         <f>全体図!G29</f>
@@ -10494,10 +10801,10 @@
         <v>10</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G30" s="15">
         <f>全体図!G30</f>
@@ -10516,64 +10823,64 @@
       <c r="O30" s="17"/>
       <c r="P30" s="17"/>
     </row>
-    <row r="31" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="4">
+    <row r="31" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="17"/>
+      <c r="B31" s="2">
         <v>29</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="C31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G31" s="12">
+      <c r="E31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" s="15">
         <f>全体図!G31</f>
         <v>0</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="15">
         <f>全体図!H31</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+    </row>
+    <row r="32" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="2">
         <v>30</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="C32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G32" s="15">
+      <c r="E32" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="12">
         <f>全体図!G32</f>
         <v>0</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="12">
         <f>全体図!H32</f>
         <v>0</v>
       </c>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
     </row>
     <row r="33" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="17"/>
@@ -10581,24 +10888,24 @@
         <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="15" t="str">
+        <v>81</v>
+      </c>
+      <c r="G33" s="15">
         <f>全体図!G33</f>
-        <v>目崎</v>
-      </c>
-      <c r="H33" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="H33" s="15">
         <f>全体図!H33</f>
-        <v>終了</v>
+        <v>0</v>
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
@@ -10621,14 +10928,14 @@
         <v>12</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="G34" s="15" t="str">
         <f>全体図!G34</f>
-        <v>古川</v>
+        <v>目崎</v>
       </c>
       <c r="H34" s="15" t="str">
         <f>全体図!H34</f>
@@ -10655,14 +10962,14 @@
         <v>12</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="G35" s="15" t="str">
         <f>全体図!G35</f>
-        <v>目崎</v>
+        <v>古川</v>
       </c>
       <c r="H35" s="15" t="str">
         <f>全体図!H35</f>
@@ -10689,14 +10996,14 @@
         <v>12</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="G36" s="15" t="str">
         <f>全体図!G36</f>
-        <v>小神野</v>
+        <v>目崎</v>
       </c>
       <c r="H36" s="15" t="str">
         <f>全体図!H36</f>
@@ -10723,18 +11030,18 @@
         <v>12</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" s="15">
+        <v>69</v>
+      </c>
+      <c r="G37" s="15" t="str">
         <f>全体図!G37</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="15">
+        <v>小神野</v>
+      </c>
+      <c r="H37" s="15" t="str">
         <f>全体図!H37</f>
-        <v>0</v>
+        <v>終了</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
@@ -10745,64 +11052,64 @@
       <c r="O37" s="17"/>
       <c r="P37" s="17"/>
     </row>
-    <row r="38" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="4">
+    <row r="38" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="17"/>
+      <c r="B38" s="2">
         <v>36</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G38" s="12">
+      <c r="E38" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="15">
         <f>全体図!G38</f>
         <v>0</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="15">
         <f>全体図!H38</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+    </row>
+    <row r="39" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="2">
         <v>37</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G39" s="15" t="str">
+      <c r="E39" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G39" s="12">
         <f>全体図!G39</f>
-        <v>上野</v>
-      </c>
-      <c r="H39" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="H39" s="12">
         <f>全体図!H39</f>
-        <v>〇</v>
-      </c>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="17"/>
@@ -10816,18 +11123,18 @@
         <v>12</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G40" s="15">
+        <v>72</v>
+      </c>
+      <c r="G40" s="15" t="str">
         <f>全体図!G40</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="15">
+        <v>上野</v>
+      </c>
+      <c r="H40" s="15" t="str">
         <f>全体図!H40</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
@@ -10850,10 +11157,10 @@
         <v>12</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G41" s="15">
         <f>全体図!G41</f>
@@ -10884,18 +11191,18 @@
         <v>12</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G42" s="15" t="str">
+        <v>74</v>
+      </c>
+      <c r="G42" s="15">
         <f>全体図!G42</f>
-        <v>目崎</v>
-      </c>
-      <c r="H42" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="H42" s="15">
         <f>全体図!H42</f>
-        <v>終了</v>
+        <v>0</v>
       </c>
       <c r="I42" s="17"/>
       <c r="J42" s="17"/>
@@ -10906,64 +11213,64 @@
       <c r="O42" s="17"/>
       <c r="P42" s="17"/>
     </row>
-    <row r="43" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="4">
+    <row r="43" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="17"/>
+      <c r="B43" s="2">
         <v>41</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="12">
+      <c r="C43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G43" s="15" t="str">
         <f>全体図!G43</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="12">
+        <v>目崎</v>
+      </c>
+      <c r="H43" s="15" t="str">
         <f>全体図!H43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="17"/>
+        <v>終了</v>
+      </c>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+    </row>
+    <row r="44" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="2">
         <v>42</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G44" s="15">
+      <c r="E44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="12">
         <f>全体図!G44</f>
         <v>0</v>
       </c>
-      <c r="H44" s="15">
+      <c r="H44" s="12">
         <f>全体図!H44</f>
         <v>0</v>
       </c>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
     </row>
     <row r="45" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="17"/>
@@ -10977,10 +11284,10 @@
         <v>16</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G45" s="15">
         <f>全体図!G45</f>
@@ -10999,64 +11306,64 @@
       <c r="O45" s="17"/>
       <c r="P45" s="17"/>
     </row>
-    <row r="46" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="4">
+    <row r="46" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="17"/>
+      <c r="B46" s="2">
         <v>44</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" s="12">
+      <c r="C46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G46" s="15">
         <f>全体図!G46</f>
         <v>0</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="15">
         <f>全体図!H46</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" s="16" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+    </row>
+    <row r="47" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="2">
         <v>45</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G47" s="15">
+      <c r="E47" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="12">
         <f>全体図!G47</f>
         <v>0</v>
       </c>
-      <c r="H47" s="15">
+      <c r="H47" s="12">
         <f>全体図!H47</f>
         <v>0</v>
       </c>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
     </row>
     <row r="48" spans="1:16" s="16" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="17"/>
@@ -11070,10 +11377,10 @@
         <v>20</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G48" s="15">
         <f>全体図!G48</f>
@@ -11104,10 +11411,10 @@
         <v>20</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G49" s="15">
         <f>全体図!G49</f>
@@ -11138,10 +11445,10 @@
         <v>20</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G50" s="15">
         <f>全体図!G50</f>
@@ -11160,7 +11467,7 @@
       <c r="O50" s="17"/>
       <c r="P50" s="17"/>
     </row>
-    <row r="51" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:16" s="16" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="17"/>
       <c r="B51" s="2">
         <v>49</v>
@@ -11172,10 +11479,10 @@
         <v>20</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>25</v>
+        <v>97</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="G51" s="15">
         <f>全体図!G51</f>
@@ -11194,25 +11501,64 @@
       <c r="O51" s="17"/>
       <c r="P51" s="17"/>
     </row>
-    <row r="52" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
+    <row r="52" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="17"/>
+      <c r="B52" s="2">
+        <v>50</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="15">
+        <f>全体図!G52</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="15">
+        <f>全体図!H52</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+    </row>
+    <row r="53" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="〇">
+  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H26 H28:H1048576">
+    <cfRule type="containsText" dxfId="45" priority="4" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="37" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="44" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="36" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="43" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11221,9 +11567,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F87894D-12DC-4794-BDC3-A303FF30E4C5}">
-  <dimension ref="B2:H51"/>
+  <dimension ref="B2:H52"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -11857,18 +12205,18 @@
         <v>10</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="15">
+        <v>122</v>
+      </c>
+      <c r="G27" s="15" t="str">
         <f>全体図!G27</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="15">
+        <v>川口</v>
+      </c>
+      <c r="H27" s="15" t="str">
         <f>全体図!H27</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -11882,10 +12230,10 @@
         <v>10</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G28" s="15">
         <f>全体図!G28</f>
@@ -11907,10 +12255,10 @@
         <v>10</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G29" s="15">
         <f>全体図!G29</f>
@@ -11932,10 +12280,10 @@
         <v>10</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G30" s="15">
         <f>全体図!G30</f>
@@ -11957,10 +12305,10 @@
         <v>10</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="G31" s="15">
         <f>全体図!G31</f>
@@ -11982,10 +12330,10 @@
         <v>10</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="G32" s="15">
         <f>全体図!G32</f>
@@ -12001,72 +12349,72 @@
         <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="15">
+        <f>全体図!G33</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="15">
+        <f>全体図!H33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="2">
+        <v>32</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="15" t="str">
-        <f>全体図!G33</f>
+      <c r="G34" s="15" t="str">
+        <f>全体図!G34</f>
         <v>目崎</v>
       </c>
-      <c r="H33" s="15" t="str">
-        <f>全体図!H33</f>
-        <v>終了</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="4">
-        <v>32</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G34" s="12" t="str">
-        <f>全体図!G34</f>
-        <v>古川</v>
-      </c>
-      <c r="H34" s="12" t="str">
+      <c r="H34" s="15" t="str">
         <f>全体図!H34</f>
         <v>終了</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="2">
         <v>33</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G35" s="15" t="str">
+      <c r="E35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" s="12" t="str">
         <f>全体図!G35</f>
-        <v>目崎</v>
-      </c>
-      <c r="H35" s="15" t="str">
+        <v>古川</v>
+      </c>
+      <c r="H35" s="12" t="str">
         <f>全体図!H35</f>
         <v>終了</v>
       </c>
@@ -12082,14 +12430,14 @@
         <v>12</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="G36" s="15" t="str">
         <f>全体図!G36</f>
-        <v>小神野</v>
+        <v>目崎</v>
       </c>
       <c r="H36" s="15" t="str">
         <f>全体図!H36</f>
@@ -12107,18 +12455,18 @@
         <v>12</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" s="15">
+        <v>69</v>
+      </c>
+      <c r="G37" s="15" t="str">
         <f>全体図!G37</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="15">
+        <v>小神野</v>
+      </c>
+      <c r="H37" s="15" t="str">
         <f>全体図!H37</f>
-        <v>0</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -12132,10 +12480,10 @@
         <v>12</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G38" s="15">
         <f>全体図!G38</f>
@@ -12157,18 +12505,18 @@
         <v>12</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G39" s="15" t="str">
+        <v>71</v>
+      </c>
+      <c r="G39" s="15">
         <f>全体図!G39</f>
-        <v>上野</v>
-      </c>
-      <c r="H39" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="H39" s="15">
         <f>全体図!H39</f>
-        <v>〇</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -12182,18 +12530,18 @@
         <v>12</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G40" s="15">
+        <v>72</v>
+      </c>
+      <c r="G40" s="15" t="str">
         <f>全体図!G40</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="15">
+        <v>上野</v>
+      </c>
+      <c r="H40" s="15" t="str">
         <f>全体図!H40</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -12207,10 +12555,10 @@
         <v>12</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G41" s="15">
         <f>全体図!G41</f>
@@ -12232,66 +12580,66 @@
         <v>12</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" s="15">
+        <f>全体図!G42</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="15">
+        <f>全体図!H42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="2">
+        <v>41</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G42" s="15" t="str">
-        <f>全体図!G42</f>
+      <c r="G43" s="15" t="str">
+        <f>全体図!G43</f>
         <v>目崎</v>
       </c>
-      <c r="H42" s="15" t="str">
-        <f>全体図!H42</f>
+      <c r="H43" s="15" t="str">
+        <f>全体図!H43</f>
         <v>終了</v>
       </c>
     </row>
-    <row r="43" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="4">
-        <v>41</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="12">
-        <f>全体図!G43</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="12">
-        <f>全体図!H43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="2">
         <v>42</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G44" s="15">
+      <c r="E44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="12">
         <f>全体図!G44</f>
         <v>0</v>
       </c>
-      <c r="H44" s="15">
+      <c r="H44" s="12">
         <f>全体図!H44</f>
         <v>0</v>
       </c>
@@ -12307,10 +12655,10 @@
         <v>16</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G45" s="15">
         <f>全体図!G45</f>
@@ -12321,52 +12669,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="4">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="2">
         <v>44</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" s="12">
+      <c r="C46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G46" s="15">
         <f>全体図!G46</f>
         <v>0</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="15">
         <f>全体図!H46</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="2">
         <v>45</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G47" s="15">
+      <c r="E47" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="12">
         <f>全体図!G47</f>
         <v>0</v>
       </c>
-      <c r="H47" s="15">
+      <c r="H47" s="12">
         <f>全体図!H47</f>
         <v>0</v>
       </c>
@@ -12382,10 +12730,10 @@
         <v>20</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G48" s="15">
         <f>全体図!G48</f>
@@ -12407,10 +12755,10 @@
         <v>20</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G49" s="15">
         <f>全体図!G49</f>
@@ -12432,10 +12780,10 @@
         <v>20</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G50" s="15">
         <f>全体図!G50</f>
@@ -12446,7 +12794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="2">
         <v>49</v>
       </c>
@@ -12457,10 +12805,10 @@
         <v>20</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>25</v>
+        <v>97</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="G51" s="15">
         <f>全体図!G51</f>
@@ -12471,21 +12819,51 @@
         <v>0</v>
       </c>
     </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="2">
+        <v>50</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="15">
+        <f>全体図!G52</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="15">
+        <f>全体図!H52</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="〇">
+  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H26 H28:H1048576">
+    <cfRule type="containsText" dxfId="42" priority="4" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="40" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12494,9 +12872,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D995EB6-94AE-4B45-B3EB-582DD8848CDC}">
-  <dimension ref="B2:H51"/>
+  <dimension ref="B2:H52"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -13130,18 +13510,18 @@
         <v>10</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="15">
+        <v>122</v>
+      </c>
+      <c r="G27" s="15" t="str">
         <f>全体図!G27</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="15">
+        <v>川口</v>
+      </c>
+      <c r="H27" s="15" t="str">
         <f>全体図!H27</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -13155,10 +13535,10 @@
         <v>10</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G28" s="15">
         <f>全体図!G28</f>
@@ -13180,10 +13560,10 @@
         <v>10</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G29" s="15">
         <f>全体図!G29</f>
@@ -13205,10 +13585,10 @@
         <v>10</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G30" s="15">
         <f>全体図!G30</f>
@@ -13230,10 +13610,10 @@
         <v>10</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="G31" s="15">
         <f>全体図!G31</f>
@@ -13255,10 +13635,10 @@
         <v>10</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="G32" s="15">
         <f>全体図!G32</f>
@@ -13274,24 +13654,24 @@
         <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="15" t="str">
+        <v>81</v>
+      </c>
+      <c r="G33" s="15">
         <f>全体図!G33</f>
-        <v>目崎</v>
-      </c>
-      <c r="H33" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="H33" s="15">
         <f>全体図!H33</f>
-        <v>終了</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -13305,66 +13685,66 @@
         <v>12</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="G34" s="15" t="str">
         <f>全体図!G34</f>
-        <v>古川</v>
+        <v>目崎</v>
       </c>
       <c r="H34" s="15" t="str">
         <f>全体図!H34</f>
         <v>終了</v>
       </c>
     </row>
-    <row r="35" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="4">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="2">
         <v>33</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G35" s="12" t="str">
+      <c r="E35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" s="15" t="str">
         <f>全体図!G35</f>
-        <v>目崎</v>
-      </c>
-      <c r="H35" s="12" t="str">
+        <v>古川</v>
+      </c>
+      <c r="H35" s="15" t="str">
         <f>全体図!H35</f>
         <v>終了</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="2">
         <v>34</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G36" s="15" t="str">
+      <c r="E36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" s="12" t="str">
         <f>全体図!G36</f>
-        <v>小神野</v>
-      </c>
-      <c r="H36" s="15" t="str">
+        <v>目崎</v>
+      </c>
+      <c r="H36" s="12" t="str">
         <f>全体図!H36</f>
         <v>終了</v>
       </c>
@@ -13380,18 +13760,18 @@
         <v>12</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" s="15">
+        <v>69</v>
+      </c>
+      <c r="G37" s="15" t="str">
         <f>全体図!G37</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="15">
+        <v>小神野</v>
+      </c>
+      <c r="H37" s="15" t="str">
         <f>全体図!H37</f>
-        <v>0</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -13405,10 +13785,10 @@
         <v>12</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G38" s="15">
         <f>全体図!G38</f>
@@ -13430,18 +13810,18 @@
         <v>12</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G39" s="15" t="str">
+        <v>71</v>
+      </c>
+      <c r="G39" s="15">
         <f>全体図!G39</f>
-        <v>上野</v>
-      </c>
-      <c r="H39" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="H39" s="15">
         <f>全体図!H39</f>
-        <v>〇</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -13455,18 +13835,18 @@
         <v>12</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G40" s="15">
+        <v>72</v>
+      </c>
+      <c r="G40" s="15" t="str">
         <f>全体図!G40</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="15">
+        <v>上野</v>
+      </c>
+      <c r="H40" s="15" t="str">
         <f>全体図!H40</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -13480,10 +13860,10 @@
         <v>12</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G41" s="15">
         <f>全体図!G41</f>
@@ -13505,66 +13885,66 @@
         <v>12</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" s="15">
+        <f>全体図!G42</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="15">
+        <f>全体図!H42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="2">
+        <v>41</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G42" s="15" t="str">
-        <f>全体図!G42</f>
+      <c r="G43" s="15" t="str">
+        <f>全体図!G43</f>
         <v>目崎</v>
       </c>
-      <c r="H42" s="15" t="str">
-        <f>全体図!H42</f>
+      <c r="H43" s="15" t="str">
+        <f>全体図!H43</f>
         <v>終了</v>
       </c>
     </row>
-    <row r="43" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="4">
-        <v>41</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="12">
-        <f>全体図!G43</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="12">
-        <f>全体図!H43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="2">
         <v>42</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G44" s="15">
+      <c r="E44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="12">
         <f>全体図!G44</f>
         <v>0</v>
       </c>
-      <c r="H44" s="15">
+      <c r="H44" s="12">
         <f>全体図!H44</f>
         <v>0</v>
       </c>
@@ -13580,10 +13960,10 @@
         <v>16</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G45" s="15">
         <f>全体図!G45</f>
@@ -13594,52 +13974,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="4">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="2">
         <v>44</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" s="12">
+      <c r="C46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G46" s="15">
         <f>全体図!G46</f>
         <v>0</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="15">
         <f>全体図!H46</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="2">
         <v>45</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G47" s="15">
+      <c r="E47" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="12">
         <f>全体図!G47</f>
         <v>0</v>
       </c>
-      <c r="H47" s="15">
+      <c r="H47" s="12">
         <f>全体図!H47</f>
         <v>0</v>
       </c>
@@ -13655,10 +14035,10 @@
         <v>20</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G48" s="15">
         <f>全体図!G48</f>
@@ -13680,10 +14060,10 @@
         <v>20</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G49" s="15">
         <f>全体図!G49</f>
@@ -13705,10 +14085,10 @@
         <v>20</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G50" s="15">
         <f>全体図!G50</f>
@@ -13719,7 +14099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="2">
         <v>49</v>
       </c>
@@ -13730,10 +14110,10 @@
         <v>20</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>25</v>
+        <v>97</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="G51" s="15">
         <f>全体図!G51</f>
@@ -13744,21 +14124,51 @@
         <v>0</v>
       </c>
     </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="2">
+        <v>50</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="15">
+        <f>全体図!G52</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="15">
+        <f>全体図!H52</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="〇">
+  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H26 H28:H1048576">
+    <cfRule type="containsText" dxfId="39" priority="4" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="31" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="37" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13767,9 +14177,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697F154B-C5ED-4DA1-9C36-9CC4BA0C4464}">
-  <dimension ref="B2:H51"/>
+  <dimension ref="B2:H52"/>
   <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="40" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -14403,18 +14815,18 @@
         <v>10</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="15">
+        <v>122</v>
+      </c>
+      <c r="G27" s="15" t="str">
         <f>全体図!G27</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="15">
+        <v>川口</v>
+      </c>
+      <c r="H27" s="15" t="str">
         <f>全体図!H27</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -14428,10 +14840,10 @@
         <v>10</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G28" s="15">
         <f>全体図!G28</f>
@@ -14453,10 +14865,10 @@
         <v>10</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G29" s="15">
         <f>全体図!G29</f>
@@ -14478,10 +14890,10 @@
         <v>10</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G30" s="15">
         <f>全体図!G30</f>
@@ -14503,10 +14915,10 @@
         <v>10</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="G31" s="15">
         <f>全体図!G31</f>
@@ -14528,10 +14940,10 @@
         <v>10</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="G32" s="15">
         <f>全体図!G32</f>
@@ -14547,24 +14959,24 @@
         <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="15" t="str">
+        <v>81</v>
+      </c>
+      <c r="G33" s="15">
         <f>全体図!G33</f>
-        <v>目崎</v>
-      </c>
-      <c r="H33" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="H33" s="15">
         <f>全体図!H33</f>
-        <v>終了</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -14578,14 +14990,14 @@
         <v>12</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="G34" s="15" t="str">
         <f>全体図!G34</f>
-        <v>古川</v>
+        <v>目崎</v>
       </c>
       <c r="H34" s="15" t="str">
         <f>全体図!H34</f>
@@ -14603,14 +15015,14 @@
         <v>12</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="G35" s="15" t="str">
         <f>全体図!G35</f>
-        <v>目崎</v>
+        <v>古川</v>
       </c>
       <c r="H35" s="15" t="str">
         <f>全体図!H35</f>
@@ -14628,14 +15040,14 @@
         <v>12</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="G36" s="15" t="str">
         <f>全体図!G36</f>
-        <v>小神野</v>
+        <v>目崎</v>
       </c>
       <c r="H36" s="15" t="str">
         <f>全体図!H36</f>
@@ -14653,18 +15065,18 @@
         <v>12</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" s="15">
+        <v>69</v>
+      </c>
+      <c r="G37" s="15" t="str">
         <f>全体図!G37</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="15">
+        <v>小神野</v>
+      </c>
+      <c r="H37" s="15" t="str">
         <f>全体図!H37</f>
-        <v>0</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -14678,10 +15090,10 @@
         <v>12</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G38" s="15">
         <f>全体図!G38</f>
@@ -14703,18 +15115,18 @@
         <v>12</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G39" s="15" t="str">
+        <v>71</v>
+      </c>
+      <c r="G39" s="15">
         <f>全体図!G39</f>
-        <v>上野</v>
-      </c>
-      <c r="H39" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="H39" s="15">
         <f>全体図!H39</f>
-        <v>〇</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -14728,18 +15140,18 @@
         <v>12</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G40" s="15">
+        <v>72</v>
+      </c>
+      <c r="G40" s="15" t="str">
         <f>全体図!G40</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="15">
+        <v>上野</v>
+      </c>
+      <c r="H40" s="15" t="str">
         <f>全体図!H40</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -14753,10 +15165,10 @@
         <v>12</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G41" s="15">
         <f>全体図!G41</f>
@@ -14778,18 +15190,18 @@
         <v>12</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G42" s="15" t="str">
+        <v>74</v>
+      </c>
+      <c r="G42" s="15">
         <f>全体図!G42</f>
-        <v>目崎</v>
-      </c>
-      <c r="H42" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="H42" s="15">
         <f>全体図!H42</f>
-        <v>終了</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -14797,24 +15209,24 @@
         <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="15">
+        <v>109</v>
+      </c>
+      <c r="G43" s="15" t="str">
         <f>全体図!G43</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="15">
+        <v>目崎</v>
+      </c>
+      <c r="H43" s="15" t="str">
         <f>全体図!H43</f>
-        <v>0</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -14828,10 +15240,10 @@
         <v>16</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="G44" s="15">
         <f>全体図!G44</f>
@@ -14853,10 +15265,10 @@
         <v>16</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G45" s="15">
         <f>全体図!G45</f>
@@ -14872,16 +15284,16 @@
         <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="G46" s="15">
         <f>全体図!G46</f>
@@ -14892,7 +15304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="2">
         <v>45</v>
       </c>
@@ -14903,10 +15315,10 @@
         <v>20</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>94</v>
+        <v>21</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="G47" s="15">
         <f>全体図!G47</f>
@@ -14928,10 +15340,10 @@
         <v>20</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G48" s="15">
         <f>全体図!G48</f>
@@ -14953,10 +15365,10 @@
         <v>20</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G49" s="15">
         <f>全体図!G49</f>
@@ -14978,10 +15390,10 @@
         <v>20</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G50" s="15">
         <f>全体図!G50</f>
@@ -14992,7 +15404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="2">
         <v>49</v>
       </c>
@@ -15003,10 +15415,10 @@
         <v>20</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>25</v>
+        <v>97</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="G51" s="15">
         <f>全体図!G51</f>
@@ -15017,32 +15429,65 @@
         <v>0</v>
       </c>
     </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="2">
+        <v>50</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="15">
+        <f>全体図!G52</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="15">
+        <f>全体図!H52</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="〇">
+  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H26 H28:H1048576">
+    <cfRule type="containsText" dxfId="36" priority="4" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="28" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEACA3E-2345-4964-BEC4-330FBFB6CF7E}">
-  <dimension ref="B2:H51"/>
+  <dimension ref="B2:H52"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -15676,18 +16121,18 @@
         <v>10</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="15">
+        <v>122</v>
+      </c>
+      <c r="G27" s="15" t="str">
         <f>全体図!G27</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="15">
+        <v>川口</v>
+      </c>
+      <c r="H27" s="15" t="str">
         <f>全体図!H27</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -15701,10 +16146,10 @@
         <v>10</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G28" s="15">
         <f>全体図!G28</f>
@@ -15726,10 +16171,10 @@
         <v>10</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G29" s="15">
         <f>全体図!G29</f>
@@ -15751,10 +16196,10 @@
         <v>10</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G30" s="15">
         <f>全体図!G30</f>
@@ -15776,10 +16221,10 @@
         <v>10</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="G31" s="15">
         <f>全体図!G31</f>
@@ -15801,10 +16246,10 @@
         <v>10</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="G32" s="15">
         <f>全体図!G32</f>
@@ -15820,24 +16265,24 @@
         <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="15" t="str">
+        <v>81</v>
+      </c>
+      <c r="G33" s="15">
         <f>全体図!G33</f>
-        <v>目崎</v>
-      </c>
-      <c r="H33" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="H33" s="15">
         <f>全体図!H33</f>
-        <v>終了</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -15851,14 +16296,14 @@
         <v>12</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="G34" s="15" t="str">
         <f>全体図!G34</f>
-        <v>古川</v>
+        <v>目崎</v>
       </c>
       <c r="H34" s="15" t="str">
         <f>全体図!H34</f>
@@ -15876,14 +16321,14 @@
         <v>12</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="G35" s="15" t="str">
         <f>全体図!G35</f>
-        <v>目崎</v>
+        <v>古川</v>
       </c>
       <c r="H35" s="15" t="str">
         <f>全体図!H35</f>
@@ -15901,14 +16346,14 @@
         <v>12</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="G36" s="15" t="str">
         <f>全体図!G36</f>
-        <v>小神野</v>
+        <v>目崎</v>
       </c>
       <c r="H36" s="15" t="str">
         <f>全体図!H36</f>
@@ -15926,18 +16371,18 @@
         <v>12</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" s="15">
+        <v>69</v>
+      </c>
+      <c r="G37" s="15" t="str">
         <f>全体図!G37</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="15">
+        <v>小神野</v>
+      </c>
+      <c r="H37" s="15" t="str">
         <f>全体図!H37</f>
-        <v>0</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -15951,10 +16396,10 @@
         <v>12</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G38" s="15">
         <f>全体図!G38</f>
@@ -15976,18 +16421,18 @@
         <v>12</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G39" s="15" t="str">
+        <v>71</v>
+      </c>
+      <c r="G39" s="15">
         <f>全体図!G39</f>
-        <v>上野</v>
-      </c>
-      <c r="H39" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="H39" s="15">
         <f>全体図!H39</f>
-        <v>〇</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -16001,18 +16446,18 @@
         <v>12</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G40" s="15">
+        <v>72</v>
+      </c>
+      <c r="G40" s="15" t="str">
         <f>全体図!G40</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="15">
+        <v>上野</v>
+      </c>
+      <c r="H40" s="15" t="str">
         <f>全体図!H40</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -16026,10 +16471,10 @@
         <v>12</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G41" s="15">
         <f>全体図!G41</f>
@@ -16051,18 +16496,18 @@
         <v>12</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G42" s="15" t="str">
+        <v>74</v>
+      </c>
+      <c r="G42" s="15">
         <f>全体図!G42</f>
-        <v>目崎</v>
-      </c>
-      <c r="H42" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="H42" s="15">
         <f>全体図!H42</f>
-        <v>終了</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -16070,24 +16515,24 @@
         <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="15">
+        <v>109</v>
+      </c>
+      <c r="G43" s="15" t="str">
         <f>全体図!G43</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="15">
+        <v>目崎</v>
+      </c>
+      <c r="H43" s="15" t="str">
         <f>全体図!H43</f>
-        <v>0</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -16101,10 +16546,10 @@
         <v>16</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="G44" s="15">
         <f>全体図!G44</f>
@@ -16126,10 +16571,10 @@
         <v>16</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G45" s="15">
         <f>全体図!G45</f>
@@ -16145,16 +16590,16 @@
         <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="G46" s="15">
         <f>全体図!G46</f>
@@ -16165,7 +16610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="2">
         <v>45</v>
       </c>
@@ -16176,10 +16621,10 @@
         <v>20</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>94</v>
+        <v>21</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="G47" s="15">
         <f>全体図!G47</f>
@@ -16201,10 +16646,10 @@
         <v>20</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G48" s="15">
         <f>全体図!G48</f>
@@ -16226,10 +16671,10 @@
         <v>20</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G49" s="15">
         <f>全体図!G49</f>
@@ -16251,10 +16696,10 @@
         <v>20</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G50" s="15">
         <f>全体図!G50</f>
@@ -16265,7 +16710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="2">
         <v>49</v>
       </c>
@@ -16276,10 +16721,10 @@
         <v>20</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>25</v>
+        <v>97</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="G51" s="15">
         <f>全体図!G51</f>
@@ -16290,21 +16735,51 @@
         <v>0</v>
       </c>
     </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="2">
+        <v>50</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="15">
+        <f>全体図!G52</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="15">
+        <f>全体図!H52</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="26" priority="3" operator="containsText" text="〇">
+  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H26 H28:H1048576">
+    <cfRule type="containsText" dxfId="33" priority="4" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="31" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16313,9 +16788,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860600F4-DC21-4682-A384-0B6650020E97}">
-  <dimension ref="B2:H51"/>
+  <dimension ref="B2:H52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -16939,7 +17416,7 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="2">
+      <c r="B27" s="4">
         <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -16949,18 +17426,18 @@
         <v>10</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="12">
+        <v>122</v>
+      </c>
+      <c r="G27" s="12" t="str">
         <f>全体図!G27</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="14">
+        <v>川口</v>
+      </c>
+      <c r="H27" s="14" t="str">
         <f>全体図!H27</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -16974,10 +17451,10 @@
         <v>10</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G28" s="12">
         <f>全体図!G28</f>
@@ -16989,7 +17466,7 @@
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="2">
+      <c r="B29" s="4">
         <v>27</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -16999,10 +17476,10 @@
         <v>10</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G29" s="12">
         <f>全体図!G29</f>
@@ -17024,10 +17501,10 @@
         <v>10</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G30" s="12">
         <f>全体図!G30</f>
@@ -17039,7 +17516,7 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="2">
+      <c r="B31" s="4">
         <v>29</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -17049,10 +17526,10 @@
         <v>10</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="G31" s="12">
         <f>全体図!G31</f>
@@ -17074,10 +17551,10 @@
         <v>10</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="G32" s="12">
         <f>全体図!G32</f>
@@ -17093,24 +17570,24 @@
         <v>31</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="12" t="str">
+        <v>81</v>
+      </c>
+      <c r="G33" s="12">
         <f>全体図!G33</f>
-        <v>目崎</v>
-      </c>
-      <c r="H33" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="H33" s="14">
         <f>全体図!H33</f>
-        <v>終了</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -17124,14 +17601,14 @@
         <v>12</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="G34" s="12" t="str">
         <f>全体図!G34</f>
-        <v>古川</v>
+        <v>目崎</v>
       </c>
       <c r="H34" s="14" t="str">
         <f>全体図!H34</f>
@@ -17139,7 +17616,7 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="2">
+      <c r="B35" s="4">
         <v>33</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -17149,14 +17626,14 @@
         <v>12</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="G35" s="12" t="str">
         <f>全体図!G35</f>
-        <v>目崎</v>
+        <v>古川</v>
       </c>
       <c r="H35" s="14" t="str">
         <f>全体図!H35</f>
@@ -17174,14 +17651,14 @@
         <v>12</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="G36" s="12" t="str">
         <f>全体図!G36</f>
-        <v>小神野</v>
+        <v>目崎</v>
       </c>
       <c r="H36" s="14" t="str">
         <f>全体図!H36</f>
@@ -17189,7 +17666,7 @@
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="2">
+      <c r="B37" s="4">
         <v>35</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -17199,18 +17676,18 @@
         <v>12</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" s="12">
+        <v>69</v>
+      </c>
+      <c r="G37" s="12" t="str">
         <f>全体図!G37</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="14">
+        <v>小神野</v>
+      </c>
+      <c r="H37" s="14" t="str">
         <f>全体図!H37</f>
-        <v>0</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -17224,10 +17701,10 @@
         <v>12</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G38" s="12">
         <f>全体図!G38</f>
@@ -17239,7 +17716,7 @@
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="2">
+      <c r="B39" s="4">
         <v>37</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -17249,18 +17726,18 @@
         <v>12</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G39" s="12" t="str">
+        <v>71</v>
+      </c>
+      <c r="G39" s="12">
         <f>全体図!G39</f>
-        <v>上野</v>
-      </c>
-      <c r="H39" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="H39" s="14">
         <f>全体図!H39</f>
-        <v>〇</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -17274,22 +17751,22 @@
         <v>12</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G40" s="12">
+        <v>72</v>
+      </c>
+      <c r="G40" s="12" t="str">
         <f>全体図!G40</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="14">
+        <v>上野</v>
+      </c>
+      <c r="H40" s="14" t="str">
         <f>全体図!H40</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="2">
+      <c r="B41" s="4">
         <v>39</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -17299,10 +17776,10 @@
         <v>12</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G41" s="12">
         <f>全体図!G41</f>
@@ -17324,18 +17801,18 @@
         <v>12</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G42" s="12" t="str">
+        <v>74</v>
+      </c>
+      <c r="G42" s="12">
         <f>全体図!G42</f>
-        <v>目崎</v>
-      </c>
-      <c r="H42" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="H42" s="14">
         <f>全体図!H42</f>
-        <v>終了</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -17343,28 +17820,28 @@
         <v>41</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="12">
+        <v>109</v>
+      </c>
+      <c r="G43" s="12" t="str">
         <f>全体図!G43</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="14">
+        <v>目崎</v>
+      </c>
+      <c r="H43" s="14" t="str">
         <f>全体図!H43</f>
-        <v>0</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="4">
+      <c r="B44" s="2">
         <v>42</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -17374,10 +17851,10 @@
         <v>16</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="G44" s="12">
         <f>全体図!G44</f>
@@ -17389,7 +17866,7 @@
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="2">
+      <c r="B45" s="4">
         <v>43</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -17399,10 +17876,10 @@
         <v>16</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G45" s="12">
         <f>全体図!G45</f>
@@ -17414,20 +17891,20 @@
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="4">
+      <c r="B46" s="2">
         <v>44</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="G46" s="12">
         <f>全体図!G46</f>
@@ -17438,7 +17915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="4">
         <v>45</v>
       </c>
@@ -17449,10 +17926,10 @@
         <v>20</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>94</v>
+        <v>21</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="G47" s="12">
         <f>全体図!G47</f>
@@ -17474,10 +17951,10 @@
         <v>20</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G48" s="12">
         <f>全体図!G48</f>
@@ -17489,7 +17966,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="2">
+      <c r="B49" s="4">
         <v>47</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -17499,10 +17976,10 @@
         <v>20</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G49" s="12">
         <f>全体図!G49</f>
@@ -17524,10 +18001,10 @@
         <v>20</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G50" s="12">
         <f>全体図!G50</f>
@@ -17538,8 +18015,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="2">
+    <row r="51" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="4">
         <v>49</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -17549,10 +18026,10 @@
         <v>20</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>25</v>
+        <v>97</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="G51" s="12">
         <f>全体図!G51</f>
@@ -17563,21 +18040,51 @@
         <v>0</v>
       </c>
     </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="2">
+        <v>50</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="12">
+        <f>全体図!G52</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="14">
+        <f>全体図!H52</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="〇">
+  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H26 H28:H1048576">
+    <cfRule type="containsText" dxfId="30" priority="4" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="28" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17586,9 +18093,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1B3B79-6399-4B46-85F6-6DBB17F80967}">
-  <dimension ref="B2:H51"/>
+  <dimension ref="B2:H52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -18222,18 +18731,18 @@
         <v>10</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="12">
+        <v>122</v>
+      </c>
+      <c r="G27" s="12" t="str">
         <f>全体図!G27</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="14">
+        <v>川口</v>
+      </c>
+      <c r="H27" s="14" t="str">
         <f>全体図!H27</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -18247,10 +18756,10 @@
         <v>10</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G28" s="12">
         <f>全体図!G28</f>
@@ -18272,10 +18781,10 @@
         <v>10</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G29" s="12">
         <f>全体図!G29</f>
@@ -18297,10 +18806,10 @@
         <v>10</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G30" s="12">
         <f>全体図!G30</f>
@@ -18322,10 +18831,10 @@
         <v>10</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="G31" s="12">
         <f>全体図!G31</f>
@@ -18347,10 +18856,10 @@
         <v>10</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="G32" s="12">
         <f>全体図!G32</f>
@@ -18366,24 +18875,24 @@
         <v>31</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="12" t="str">
+        <v>81</v>
+      </c>
+      <c r="G33" s="12">
         <f>全体図!G33</f>
-        <v>目崎</v>
-      </c>
-      <c r="H33" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="H33" s="14">
         <f>全体図!H33</f>
-        <v>終了</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -18397,14 +18906,14 @@
         <v>12</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="G34" s="12" t="str">
         <f>全体図!G34</f>
-        <v>古川</v>
+        <v>目崎</v>
       </c>
       <c r="H34" s="14" t="str">
         <f>全体図!H34</f>
@@ -18422,14 +18931,14 @@
         <v>12</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="G35" s="12" t="str">
         <f>全体図!G35</f>
-        <v>目崎</v>
+        <v>古川</v>
       </c>
       <c r="H35" s="14" t="str">
         <f>全体図!H35</f>
@@ -18447,14 +18956,14 @@
         <v>12</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="G36" s="12" t="str">
         <f>全体図!G36</f>
-        <v>小神野</v>
+        <v>目崎</v>
       </c>
       <c r="H36" s="14" t="str">
         <f>全体図!H36</f>
@@ -18472,18 +18981,18 @@
         <v>12</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" s="12">
+        <v>69</v>
+      </c>
+      <c r="G37" s="12" t="str">
         <f>全体図!G37</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="14">
+        <v>小神野</v>
+      </c>
+      <c r="H37" s="14" t="str">
         <f>全体図!H37</f>
-        <v>0</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -18497,10 +19006,10 @@
         <v>12</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G38" s="12">
         <f>全体図!G38</f>
@@ -18522,18 +19031,18 @@
         <v>12</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G39" s="12" t="str">
+        <v>71</v>
+      </c>
+      <c r="G39" s="12">
         <f>全体図!G39</f>
-        <v>上野</v>
-      </c>
-      <c r="H39" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="H39" s="14">
         <f>全体図!H39</f>
-        <v>〇</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -18547,18 +19056,18 @@
         <v>12</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G40" s="12">
+        <v>72</v>
+      </c>
+      <c r="G40" s="12" t="str">
         <f>全体図!G40</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="14">
+        <v>上野</v>
+      </c>
+      <c r="H40" s="14" t="str">
         <f>全体図!H40</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -18572,10 +19081,10 @@
         <v>12</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G41" s="12">
         <f>全体図!G41</f>
@@ -18597,18 +19106,18 @@
         <v>12</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G42" s="12" t="str">
+        <v>74</v>
+      </c>
+      <c r="G42" s="12">
         <f>全体図!G42</f>
-        <v>目崎</v>
-      </c>
-      <c r="H42" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="H42" s="14">
         <f>全体図!H42</f>
-        <v>終了</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -18616,24 +19125,24 @@
         <v>41</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="12">
+        <v>109</v>
+      </c>
+      <c r="G43" s="12" t="str">
         <f>全体図!G43</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="14">
+        <v>目崎</v>
+      </c>
+      <c r="H43" s="14" t="str">
         <f>全体図!H43</f>
-        <v>0</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -18647,10 +19156,10 @@
         <v>16</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="G44" s="12">
         <f>全体図!G44</f>
@@ -18672,10 +19181,10 @@
         <v>16</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G45" s="12">
         <f>全体図!G45</f>
@@ -18691,16 +19200,16 @@
         <v>44</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="G46" s="12">
         <f>全体図!G46</f>
@@ -18711,7 +19220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="4">
         <v>45</v>
       </c>
@@ -18722,10 +19231,10 @@
         <v>20</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>94</v>
+        <v>21</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="G47" s="12">
         <f>全体図!G47</f>
@@ -18747,10 +19256,10 @@
         <v>20</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G48" s="12">
         <f>全体図!G48</f>
@@ -18772,10 +19281,10 @@
         <v>20</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G49" s="12">
         <f>全体図!G49</f>
@@ -18797,10 +19306,10 @@
         <v>20</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G50" s="12">
         <f>全体図!G50</f>
@@ -18811,7 +19320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="4">
         <v>49</v>
       </c>
@@ -18822,10 +19331,10 @@
         <v>20</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>25</v>
+        <v>97</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="G51" s="12">
         <f>全体図!G51</f>
@@ -18836,21 +19345,51 @@
         <v>0</v>
       </c>
     </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="4">
+        <v>50</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="12">
+        <f>全体図!G52</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="14">
+        <f>全体図!H52</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H1048576">
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="〇">
+  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H26 H28:H1048576">
+    <cfRule type="containsText" dxfId="27" priority="4" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="26" priority="3" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18858,6 +19397,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -19028,22 +19582,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19060,29 +19624,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/ファイル構成一覧表_D3.xlsx
+++ b/doc/ファイル構成一覧表_D3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E145A105-B2A8-46FB-AC93-258337C0E0C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C66882-9445-43F1-B65C-7B0BCE6D28E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView minimized="1" xWindow="26950" yWindow="280" windowWidth="2370" windowHeight="560" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="全体図" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2742" uniqueCount="123">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1184,7 +1184,177 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="74">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2067,8 +2237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2193,7 +2363,7 @@
         <v>117</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2403,7 +2573,7 @@
         <v>117</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2490,9 +2660,11 @@
         <v>57</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H20" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="4">
@@ -2552,7 +2724,7 @@
         <v>105</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2575,7 +2747,7 @@
         <v>105</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2701,8 +2873,12 @@
       <c r="F30" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="6"/>
+      <c r="G30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="4">
@@ -2869,8 +3045,12 @@
       <c r="F38" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="6"/>
+      <c r="G38" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="4">
@@ -3148,49 +3328,59 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H25 H38:H1048576 H7:H15 H1:H5 H17:H23 H28:H34">
-    <cfRule type="containsText" dxfId="56" priority="12" operator="containsText" text="〇">
+  <conditionalFormatting sqref="H25 H7:H15 H1:H5 H28:H29 H17:H19 H21:H23 H31:H34 H38:H1048576">
+    <cfRule type="containsText" dxfId="73" priority="17" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="55" priority="11" operator="containsText" text="〇">
-      <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="containsText" dxfId="69" priority="11" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="containsText" dxfId="68" priority="9" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="containsText" dxfId="67" priority="8" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="containsText" dxfId="66" priority="7" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="65" priority="6" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="54" priority="10" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="53" priority="7" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="52" priority="6" operator="containsText" text="〇">
-      <formula>NOT(ISERROR(SEARCH("〇",H35)))</formula>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="containsText" dxfId="51" priority="4" operator="containsText" text="〇">
-      <formula>NOT(ISERROR(SEARCH("〇",H36)))</formula>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="containsText" dxfId="50" priority="3" operator="containsText" text="〇">
-      <formula>NOT(ISERROR(SEARCH("〇",H37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="49" priority="2" operator="containsText" text="〇">
-      <formula>NOT(ISERROR(SEARCH("〇",H26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="〇">
-      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3202,8 +3392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC644048-E1AD-4D45-9AB7-851F5C565D03}">
   <dimension ref="B2:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3336,7 +3526,7 @@
       </c>
       <c r="H6" s="14" t="str">
         <f>全体図!H6</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3676,11 +3866,11 @@
       </c>
       <c r="G20" s="12" t="str">
         <f>全体図!G20</f>
-        <v>上野</v>
-      </c>
-      <c r="H20" s="14">
+        <v>古川</v>
+      </c>
+      <c r="H20" s="14" t="str">
         <f>全体図!H20</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3753,10 +3943,7 @@
         <f>全体図!G23</f>
         <v>石戸</v>
       </c>
-      <c r="H23" s="14" t="str">
-        <f>全体図!H23</f>
-        <v>〇</v>
-      </c>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="4">
@@ -3778,10 +3965,7 @@
         <f>全体図!G24</f>
         <v>石戸</v>
       </c>
-      <c r="H24" s="14" t="str">
-        <f>全体図!H24</f>
-        <v>〇</v>
-      </c>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="4">
@@ -3918,13 +4102,13 @@
       <c r="F30" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="12" t="str">
         <f>全体図!G30</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="14">
+        <v>古川</v>
+      </c>
+      <c r="H30" s="14" t="str">
         <f>全体図!H30</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -4118,13 +4302,13 @@
       <c r="F38" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="12" t="str">
         <f>全体図!G38</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="14">
+        <v>川口</v>
+      </c>
+      <c r="H38" s="14" t="str">
         <f>全体図!H38</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -4479,24 +4663,24 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H26 H28:H1048576">
-    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="〇">
+  <conditionalFormatting sqref="H1:H15 H25:H26 H28:H1048576 H17:H23">
+    <cfRule type="containsText" dxfId="32" priority="5" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="31" priority="4" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="〇">
-      <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="29" priority="2" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="〇">
-      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4507,8 +4691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55929C9-1429-4ADB-9396-65D99D42B784}">
   <dimension ref="B2:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4641,7 +4825,7 @@
       </c>
       <c r="H6" s="14" t="str">
         <f>全体図!H6</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -4981,11 +5165,11 @@
       </c>
       <c r="G20" s="12" t="str">
         <f>全体図!G20</f>
-        <v>上野</v>
-      </c>
-      <c r="H20" s="14">
+        <v>古川</v>
+      </c>
+      <c r="H20" s="14" t="str">
         <f>全体図!H20</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -5058,10 +5242,7 @@
         <f>全体図!G23</f>
         <v>石戸</v>
       </c>
-      <c r="H23" s="14" t="str">
-        <f>全体図!H23</f>
-        <v>〇</v>
-      </c>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="4">
@@ -5083,10 +5264,7 @@
         <f>全体図!G24</f>
         <v>石戸</v>
       </c>
-      <c r="H24" s="14" t="str">
-        <f>全体図!H24</f>
-        <v>〇</v>
-      </c>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="4">
@@ -5223,13 +5401,13 @@
       <c r="F30" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="12" t="str">
         <f>全体図!G30</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="14">
+        <v>古川</v>
+      </c>
+      <c r="H30" s="14" t="str">
         <f>全体図!H30</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -5423,13 +5601,13 @@
       <c r="F38" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="12" t="str">
         <f>全体図!G38</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="14">
+        <v>川口</v>
+      </c>
+      <c r="H38" s="14" t="str">
         <f>全体図!H38</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -5784,24 +5962,24 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H26 H28:H1048576">
-    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="〇">
+  <conditionalFormatting sqref="H1:H15 H25:H26 H28:H1048576 H17:H23">
+    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="27" priority="4" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="〇">
-      <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="〇">
-      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5812,8 +5990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCF0817-3206-463E-8147-94C3D4B8394F}">
   <dimension ref="B2:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5946,7 +6124,7 @@
       </c>
       <c r="H6" s="14" t="str">
         <f>全体図!H6</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -6286,11 +6464,11 @@
       </c>
       <c r="G20" s="12" t="str">
         <f>全体図!G20</f>
-        <v>上野</v>
-      </c>
-      <c r="H20" s="14">
+        <v>古川</v>
+      </c>
+      <c r="H20" s="14" t="str">
         <f>全体図!H20</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -6363,10 +6541,7 @@
         <f>全体図!G23</f>
         <v>石戸</v>
       </c>
-      <c r="H23" s="14" t="str">
-        <f>全体図!H23</f>
-        <v>〇</v>
-      </c>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="4">
@@ -6388,10 +6563,7 @@
         <f>全体図!G24</f>
         <v>石戸</v>
       </c>
-      <c r="H24" s="14" t="str">
-        <f>全体図!H24</f>
-        <v>〇</v>
-      </c>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="4">
@@ -6528,13 +6700,13 @@
       <c r="F30" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="12" t="str">
         <f>全体図!G30</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="14">
+        <v>古川</v>
+      </c>
+      <c r="H30" s="14" t="str">
         <f>全体図!H30</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -6728,13 +6900,13 @@
       <c r="F38" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="12" t="str">
         <f>全体図!G38</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="14">
+        <v>川口</v>
+      </c>
+      <c r="H38" s="14" t="str">
         <f>全体図!H38</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -7089,24 +7261,24 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H26 H28:H1048576">
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="〇">
+  <conditionalFormatting sqref="H1:H15 H25:H26 H28:H1048576 H17:H23">
+    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="〇">
-      <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="21" priority="2" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="〇">
-      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7117,8 +7289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2B82E9-39F8-470A-8355-F61C60AD3CA1}">
   <dimension ref="B2:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -7251,7 +7423,7 @@
       </c>
       <c r="H6" s="14" t="str">
         <f>全体図!H6</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -7591,11 +7763,11 @@
       </c>
       <c r="G20" s="12" t="str">
         <f>全体図!G20</f>
-        <v>上野</v>
-      </c>
-      <c r="H20" s="14">
+        <v>古川</v>
+      </c>
+      <c r="H20" s="14" t="str">
         <f>全体図!H20</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -7668,10 +7840,7 @@
         <f>全体図!G23</f>
         <v>石戸</v>
       </c>
-      <c r="H23" s="14" t="str">
-        <f>全体図!H23</f>
-        <v>〇</v>
-      </c>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="4">
@@ -7693,10 +7862,7 @@
         <f>全体図!G24</f>
         <v>石戸</v>
       </c>
-      <c r="H24" s="14" t="str">
-        <f>全体図!H24</f>
-        <v>〇</v>
-      </c>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="4">
@@ -7833,13 +7999,13 @@
       <c r="F30" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="12" t="str">
         <f>全体図!G30</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="14">
+        <v>古川</v>
+      </c>
+      <c r="H30" s="14" t="str">
         <f>全体図!H30</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -8033,13 +8199,13 @@
       <c r="F38" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="12" t="str">
         <f>全体図!G38</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="14">
+        <v>川口</v>
+      </c>
+      <c r="H38" s="14" t="str">
         <f>全体図!H38</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -8394,24 +8560,24 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H26 H28:H1048576">
-    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="〇">
+  <conditionalFormatting sqref="H1:H15 H25:H26 H28:H1048576 H17:H23">
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="〇">
-      <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="〇">
-      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8422,8 +8588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF4503B-A78F-4A54-B62C-10E2468C8C6D}">
   <dimension ref="A2:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -8567,7 +8733,7 @@
       </c>
       <c r="H6" s="15" t="str">
         <f>全体図!H6</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -8955,11 +9121,11 @@
       </c>
       <c r="G20" s="15" t="str">
         <f>全体図!G20</f>
-        <v>上野</v>
-      </c>
-      <c r="H20" s="15">
+        <v>古川</v>
+      </c>
+      <c r="H20" s="15" t="str">
         <f>全体図!H20</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
@@ -9044,10 +9210,7 @@
         <f>全体図!G23</f>
         <v>石戸</v>
       </c>
-      <c r="H23" s="15" t="str">
-        <f>全体図!H23</f>
-        <v>〇</v>
-      </c>
+      <c r="H23" s="12"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
@@ -9073,10 +9236,7 @@
         <f>全体図!G24</f>
         <v>石戸</v>
       </c>
-      <c r="H24" s="15" t="str">
-        <f>全体図!H24</f>
-        <v>〇</v>
-      </c>
+      <c r="H24" s="12"/>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
@@ -9233,13 +9393,13 @@
       <c r="F30" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="15" t="str">
         <f>全体図!G30</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="15">
+        <v>古川</v>
+      </c>
+      <c r="H30" s="15" t="str">
         <f>全体図!H30</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
@@ -9461,13 +9621,13 @@
       <c r="F38" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="15" t="str">
         <f>全体図!G38</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="15">
+        <v>川口</v>
+      </c>
+      <c r="H38" s="15" t="str">
         <f>全体図!H38</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
@@ -9869,24 +10029,24 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H26 H28:H1048576">
-    <cfRule type="containsText" dxfId="48" priority="4" operator="containsText" text="〇">
+  <conditionalFormatting sqref="H1:H15 H25:H26 H28:H1048576 H17:H23">
+    <cfRule type="containsText" dxfId="64" priority="5" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="47" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="63" priority="4" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="〇">
-      <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="61" priority="2" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="〇">
-      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9898,8 +10058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92DD289-89BB-43CD-BE39-542667FE732B}">
   <dimension ref="A2:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -10053,7 +10213,7 @@
       </c>
       <c r="H6" s="15" t="str">
         <f>全体図!H6</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -10483,11 +10643,11 @@
       </c>
       <c r="G20" s="15" t="str">
         <f>全体図!G20</f>
-        <v>上野</v>
-      </c>
-      <c r="H20" s="15">
+        <v>古川</v>
+      </c>
+      <c r="H20" s="15" t="str">
         <f>全体図!H20</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
@@ -10587,10 +10747,7 @@
         <f>全体図!G23</f>
         <v>石戸</v>
       </c>
-      <c r="H23" s="15" t="str">
-        <f>全体図!H23</f>
-        <v>〇</v>
-      </c>
+      <c r="H23" s="15"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
@@ -10621,10 +10778,7 @@
         <f>全体図!G24</f>
         <v>石戸</v>
       </c>
-      <c r="H24" s="12" t="str">
-        <f>全体図!H24</f>
-        <v>〇</v>
-      </c>
+      <c r="H24" s="15"/>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
@@ -10806,13 +10960,13 @@
       <c r="F30" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="15" t="str">
         <f>全体図!G30</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="15">
+        <v>古川</v>
+      </c>
+      <c r="H30" s="15" t="str">
         <f>全体図!H30</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
@@ -11069,13 +11223,13 @@
       <c r="F38" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="15" t="str">
         <f>全体図!G38</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="15">
+        <v>川口</v>
+      </c>
+      <c r="H38" s="15" t="str">
         <f>全体図!H38</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
@@ -11541,24 +11695,24 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H26 H28:H1048576">
-    <cfRule type="containsText" dxfId="45" priority="4" operator="containsText" text="〇">
+  <conditionalFormatting sqref="H1:H15 H25:H26 H28:H1048576 H17:H23">
+    <cfRule type="containsText" dxfId="60" priority="5" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="44" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="59" priority="4" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="43" priority="2" operator="containsText" text="〇">
-      <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="57" priority="2" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="〇">
-      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11569,8 +11723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F87894D-12DC-4794-BDC3-A303FF30E4C5}">
   <dimension ref="B2:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -11703,7 +11857,7 @@
       </c>
       <c r="H6" s="15" t="str">
         <f>全体図!H6</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -12043,11 +12197,11 @@
       </c>
       <c r="G20" s="15" t="str">
         <f>全体図!G20</f>
-        <v>上野</v>
-      </c>
-      <c r="H20" s="15">
+        <v>古川</v>
+      </c>
+      <c r="H20" s="15" t="str">
         <f>全体図!H20</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -12120,10 +12274,7 @@
         <f>全体図!G23</f>
         <v>石戸</v>
       </c>
-      <c r="H23" s="15" t="str">
-        <f>全体図!H23</f>
-        <v>〇</v>
-      </c>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="2">
@@ -12145,10 +12296,7 @@
         <f>全体図!G24</f>
         <v>石戸</v>
       </c>
-      <c r="H24" s="15" t="str">
-        <f>全体図!H24</f>
-        <v>〇</v>
-      </c>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="2">
@@ -12285,13 +12433,13 @@
       <c r="F30" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="15" t="str">
         <f>全体図!G30</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="15">
+        <v>古川</v>
+      </c>
+      <c r="H30" s="15" t="str">
         <f>全体図!H30</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -12485,13 +12633,13 @@
       <c r="F38" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="15" t="str">
         <f>全体図!G38</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="15">
+        <v>川口</v>
+      </c>
+      <c r="H38" s="15" t="str">
         <f>全体図!H38</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -12846,24 +12994,24 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H26 H28:H1048576">
-    <cfRule type="containsText" dxfId="42" priority="4" operator="containsText" text="〇">
+  <conditionalFormatting sqref="H1:H15 H25:H26 H28:H1048576 H17:H23">
+    <cfRule type="containsText" dxfId="56" priority="5" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="55" priority="4" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="40" priority="2" operator="containsText" text="〇">
-      <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="53" priority="2" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="〇">
-      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12874,8 +13022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D995EB6-94AE-4B45-B3EB-582DD8848CDC}">
   <dimension ref="B2:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView zoomScale="89" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -13008,7 +13156,7 @@
       </c>
       <c r="H6" s="15" t="str">
         <f>全体図!H6</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -13348,11 +13496,11 @@
       </c>
       <c r="G20" s="15" t="str">
         <f>全体図!G20</f>
-        <v>上野</v>
-      </c>
-      <c r="H20" s="15">
+        <v>古川</v>
+      </c>
+      <c r="H20" s="15" t="str">
         <f>全体図!H20</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -13425,10 +13573,7 @@
         <f>全体図!G23</f>
         <v>石戸</v>
       </c>
-      <c r="H23" s="15" t="str">
-        <f>全体図!H23</f>
-        <v>〇</v>
-      </c>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="2">
@@ -13450,10 +13595,7 @@
         <f>全体図!G24</f>
         <v>石戸</v>
       </c>
-      <c r="H24" s="15" t="str">
-        <f>全体図!H24</f>
-        <v>〇</v>
-      </c>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="2">
@@ -13590,13 +13732,13 @@
       <c r="F30" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="15" t="str">
         <f>全体図!G30</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="15">
+        <v>古川</v>
+      </c>
+      <c r="H30" s="15" t="str">
         <f>全体図!H30</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -13790,13 +13932,13 @@
       <c r="F38" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="15" t="str">
         <f>全体図!G38</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="15">
+        <v>川口</v>
+      </c>
+      <c r="H38" s="15" t="str">
         <f>全体図!H38</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -14151,24 +14293,24 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H26 H28:H1048576">
-    <cfRule type="containsText" dxfId="39" priority="4" operator="containsText" text="〇">
+  <conditionalFormatting sqref="H1:H15 H25:H26 H28:H1048576 H17:H23">
+    <cfRule type="containsText" dxfId="52" priority="5" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="51" priority="4" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="37" priority="2" operator="containsText" text="〇">
-      <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="49" priority="2" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="〇">
-      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14179,8 +14321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697F154B-C5ED-4DA1-9C36-9CC4BA0C4464}">
   <dimension ref="B2:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView zoomScale="92" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -14313,7 +14455,7 @@
       </c>
       <c r="H6" s="12" t="str">
         <f>全体図!H6</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -14653,11 +14795,11 @@
       </c>
       <c r="G20" s="15" t="str">
         <f>全体図!G20</f>
-        <v>上野</v>
-      </c>
-      <c r="H20" s="15">
+        <v>古川</v>
+      </c>
+      <c r="H20" s="15" t="str">
         <f>全体図!H20</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -14730,10 +14872,7 @@
         <f>全体図!G23</f>
         <v>石戸</v>
       </c>
-      <c r="H23" s="15" t="str">
-        <f>全体図!H23</f>
-        <v>〇</v>
-      </c>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="2">
@@ -14755,10 +14894,7 @@
         <f>全体図!G24</f>
         <v>石戸</v>
       </c>
-      <c r="H24" s="15" t="str">
-        <f>全体図!H24</f>
-        <v>〇</v>
-      </c>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="2">
@@ -14895,13 +15031,13 @@
       <c r="F30" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="15" t="str">
         <f>全体図!G30</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="15">
+        <v>古川</v>
+      </c>
+      <c r="H30" s="15" t="str">
         <f>全体図!H30</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -15095,13 +15231,13 @@
       <c r="F38" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="15" t="str">
         <f>全体図!G38</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="15">
+        <v>川口</v>
+      </c>
+      <c r="H38" s="15" t="str">
         <f>全体図!H38</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -15456,24 +15592,24 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H26 H28:H1048576">
-    <cfRule type="containsText" dxfId="36" priority="4" operator="containsText" text="〇">
+  <conditionalFormatting sqref="H1:H15 H25:H26 H28:H1048576 H17:H23">
+    <cfRule type="containsText" dxfId="48" priority="5" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="47" priority="4" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="〇">
-      <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="45" priority="2" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="〇">
-      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15485,8 +15621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEACA3E-2345-4964-BEC4-330FBFB6CF7E}">
   <dimension ref="B2:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -15619,7 +15755,7 @@
       </c>
       <c r="H6" s="15" t="str">
         <f>全体図!H6</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -15959,11 +16095,11 @@
       </c>
       <c r="G20" s="15" t="str">
         <f>全体図!G20</f>
-        <v>上野</v>
-      </c>
-      <c r="H20" s="15">
+        <v>古川</v>
+      </c>
+      <c r="H20" s="15" t="str">
         <f>全体図!H20</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -16036,10 +16172,7 @@
         <f>全体図!G23</f>
         <v>石戸</v>
       </c>
-      <c r="H23" s="15" t="str">
-        <f>全体図!H23</f>
-        <v>〇</v>
-      </c>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="2">
@@ -16061,10 +16194,7 @@
         <f>全体図!G24</f>
         <v>石戸</v>
       </c>
-      <c r="H24" s="15" t="str">
-        <f>全体図!H24</f>
-        <v>〇</v>
-      </c>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="2">
@@ -16201,13 +16331,13 @@
       <c r="F30" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="15" t="str">
         <f>全体図!G30</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="15">
+        <v>古川</v>
+      </c>
+      <c r="H30" s="15" t="str">
         <f>全体図!H30</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -16401,13 +16531,13 @@
       <c r="F38" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="15" t="str">
         <f>全体図!G38</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="15">
+        <v>川口</v>
+      </c>
+      <c r="H38" s="15" t="str">
         <f>全体図!H38</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -16762,24 +16892,24 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H26 H28:H1048576">
-    <cfRule type="containsText" dxfId="33" priority="4" operator="containsText" text="〇">
+  <conditionalFormatting sqref="H1:H15 H25:H26 H28:H1048576 H17:H23">
+    <cfRule type="containsText" dxfId="44" priority="5" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="43" priority="4" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="31" priority="2" operator="containsText" text="〇">
-      <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="41" priority="2" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="〇">
-      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16790,8 +16920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860600F4-DC21-4682-A384-0B6650020E97}">
   <dimension ref="B2:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -16924,7 +17054,7 @@
       </c>
       <c r="H6" s="14" t="str">
         <f>全体図!H6</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -17264,11 +17394,11 @@
       </c>
       <c r="G20" s="12" t="str">
         <f>全体図!G20</f>
-        <v>上野</v>
-      </c>
-      <c r="H20" s="14">
+        <v>古川</v>
+      </c>
+      <c r="H20" s="14" t="str">
         <f>全体図!H20</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -17341,10 +17471,7 @@
         <f>全体図!G23</f>
         <v>石戸</v>
       </c>
-      <c r="H23" s="14" t="str">
-        <f>全体図!H23</f>
-        <v>〇</v>
-      </c>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="2">
@@ -17366,10 +17493,7 @@
         <f>全体図!G24</f>
         <v>石戸</v>
       </c>
-      <c r="H24" s="14" t="str">
-        <f>全体図!H24</f>
-        <v>〇</v>
-      </c>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="4">
@@ -17506,13 +17630,13 @@
       <c r="F30" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="12" t="str">
         <f>全体図!G30</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="14">
+        <v>古川</v>
+      </c>
+      <c r="H30" s="14" t="str">
         <f>全体図!H30</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -17706,13 +17830,13 @@
       <c r="F38" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="12" t="str">
         <f>全体図!G38</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="14">
+        <v>川口</v>
+      </c>
+      <c r="H38" s="14" t="str">
         <f>全体図!H38</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -18067,24 +18191,24 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H26 H28:H1048576">
-    <cfRule type="containsText" dxfId="30" priority="4" operator="containsText" text="〇">
+  <conditionalFormatting sqref="H1:H15 H25:H26 H28:H1048576 H17:H23">
+    <cfRule type="containsText" dxfId="40" priority="5" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="39" priority="4" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="28" priority="2" operator="containsText" text="〇">
-      <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="37" priority="2" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="〇">
-      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18095,8 +18219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1B3B79-6399-4B46-85F6-6DBB17F80967}">
   <dimension ref="B2:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -18229,7 +18353,7 @@
       </c>
       <c r="H6" s="14" t="str">
         <f>全体図!H6</f>
-        <v>〇</v>
+        <v>終了</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -18569,11 +18693,11 @@
       </c>
       <c r="G20" s="12" t="str">
         <f>全体図!G20</f>
-        <v>上野</v>
-      </c>
-      <c r="H20" s="14">
+        <v>古川</v>
+      </c>
+      <c r="H20" s="14" t="str">
         <f>全体図!H20</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -18646,10 +18770,7 @@
         <f>全体図!G23</f>
         <v>石戸</v>
       </c>
-      <c r="H23" s="14" t="str">
-        <f>全体図!H23</f>
-        <v>〇</v>
-      </c>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="4">
@@ -18671,10 +18792,7 @@
         <f>全体図!G24</f>
         <v>石戸</v>
       </c>
-      <c r="H24" s="14" t="str">
-        <f>全体図!H24</f>
-        <v>〇</v>
-      </c>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="4">
@@ -18811,13 +18929,13 @@
       <c r="F30" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="12" t="str">
         <f>全体図!G30</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="14">
+        <v>古川</v>
+      </c>
+      <c r="H30" s="14" t="str">
         <f>全体図!H30</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -19011,13 +19129,13 @@
       <c r="F38" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="12" t="str">
         <f>全体図!G38</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="14">
+        <v>川口</v>
+      </c>
+      <c r="H38" s="14" t="str">
         <f>全体図!H38</f>
-        <v>0</v>
+        <v>〇</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -19372,24 +19490,24 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H1:H15 H17:H23 H25:H26 H28:H1048576">
-    <cfRule type="containsText" dxfId="27" priority="4" operator="containsText" text="〇">
+  <conditionalFormatting sqref="H1:H15 H25:H26 H28:H1048576 H17:H23">
+    <cfRule type="containsText" dxfId="36" priority="5" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="26" priority="3" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="35" priority="4" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="〇">
-      <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="33" priority="2" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="〇">
-      <formula>NOT(ISERROR(SEARCH("〇",H27)))</formula>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="〇">
+      <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19397,18 +19515,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19583,6 +19701,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -19595,14 +19721,6 @@
     <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
     <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
